--- a/src/main/resources/caseconf/identityInvalid/Case_identityInvalid.xlsx
+++ b/src/main/resources/caseconf/identityInvalid/Case_identityInvalid.xlsx
@@ -134,74 +134,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>lable</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>preDataSQL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>clearDataSQL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceEnv</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>requestType</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseParamJson</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectParamJson</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>exectResult</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>actualParam</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>author</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>preDataSQL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>clearDataSQL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceEnv</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>requestType</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseParamJson</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectParamJson</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>exectResult</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>selSQL</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptSQL</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>actualParam</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>用户不存在</t>
@@ -230,10 +222,7 @@
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/identity</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户状态为失效-2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -244,13 +233,13 @@
   </si>
   <si>
     <t>/invalidIdentity</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>identityInvalid-001</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>identityInvalid-001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>identityInvalid-002</t>
   </si>
   <si>
@@ -273,7 +262,7 @@
   </si>
   <si>
     <t>select * from user_identity where tenant_user_id = 005 and tenant_id = 1001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -290,7 +279,7 @@
       </rPr>
       <t>tate</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -299,7 +288,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -308,7 +297,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -350,18 +339,14 @@
       <t>"
 }</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户状态为成功1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
  "tenantId":"1001",
  "tenantUserId":"005"
 }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -403,40 +388,29 @@
       <t>"
 }</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_identity where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_basic_info where tenant_user_id = 009 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 009 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 009 and tenant_id = 1001;
-delete from user_identity where tenant_user_id = 009 and tenant_id = 1001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
  "tenantId":"1001",
  "tenantUserId":"009"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>-2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>-2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
  "tenantId":"",
  "tenantUserId":"1114"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -445,14 +419,14 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.IdentityController.invalidIdentity(***.web.request.IdentityInvalidRequest): [Field error in object 'identityInvalidRequest' on field 'tenantId': rejected value []; codes [NotEmpty.identityInvalidRequest.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [identityInvalidRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
  "tenantId":"li",
  "tenantUserId":""
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -461,13 +435,13 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.IdentityController.invalidIdentity(***.web.request.IdentityInvalidRequest): [Field error in object 'identityInvalidRequest' on field 'tenantUserId': rejected value []; codes [NotBlank.identityInvalidRequest.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [identityInvalidRequest.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [渠道用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
  "tenantUserId":"1114"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -476,13 +450,13 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.IdentityController.invalidIdentity(***.web.request.IdentityInvalidRequest): [Field error in object 'identityInvalidRequest' on field 'tenantId': rejected value [null]; codes [NotEmpty.identityInvalidRequest.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [identityInvalidRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
  "tenantId":"li"
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -491,7 +465,28 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.IdentityController.invalidIdentity(***.web.request.IdentityInvalidRequest): [Field error in object 'identityInvalidRequest' on field 'tenantUserId': rejected value [null]; codes [NotBlank.identityInvalidRequest.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [identityInvalidRequest.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [渠道用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态已经失效</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户状态为1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,置为失效成功</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
@@ -500,25 +495,174 @@
 insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_identity values (50003,693145221335302000,"1001","005",1,"2020-04-10 16:33:55","2020-04-10 16:33:55");insert into user_info_item values (10002290,"793145221335302111","1001","009","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_identity values (50003,693145221335302000,"1001","005",1,"2020-04-10 16:33:55","2020-04-10 16:33:55")</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_identity values (50003,693145221335302000,"1001","005",1,"2020-04-10 16:33:55","2020-04-10 16:33:55")</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item values (10002290,"793145221335302111","1001","009","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item values (10002319,"793145221335302111","1001","009","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item values (100002901,"793145221335302111","1001","009","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_info_item values (100000251,"793145221335302111","1001","009","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_basic_info values ("793145221335302111","1001","009",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_index values ("793145221335302111","1001","009","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_identity where tenant_user_id = 005 and tenant_id = 1001;
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id = 009 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 009 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 009 and tenant_id = 1001;
+delete from user_identity where tenant_user_id = 009 and tenant_id = 1001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 005 and tenant_id = 1001;
+delete from user_identity where tenant_user_id = 005 and tenant_id = 1001;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">delete from user_basic_info where tenant_user_id = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"acc"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001;
+delete from user_info_item where tenant_user_id =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"acc"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001;
+delete from user_index where tenant_user_id = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"acc"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001;
+delete from user_identity where tenant_user_id = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"acc"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and tenant_id = 1001;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptSQL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>selSQL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -686,118 +830,154 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -806,34 +986,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -842,37 +1007,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1159,9 +1306,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1177,7 +1324,7 @@
     <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
     <col min="10" max="10" width="24.25" style="15" customWidth="1"/>
     <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.4140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="26" style="5" customWidth="1"/>
     <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
     <col min="14" max="14" width="25.83203125" style="5" customWidth="1"/>
     <col min="15" max="15" width="15.08203125" style="8" customWidth="1"/>
@@ -1226,13 +1373,13 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="409.5" customHeight="1">
@@ -1240,118 +1387,133 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="57" t="s">
-        <v>46</v>
-      </c>
       <c r="P2" s="56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="84">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="409.5">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>58</v>
       </c>
       <c r="H3" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="53" t="s">
-        <v>27</v>
-      </c>
       <c r="K3" s="55" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M3" s="55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N3" s="57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O3" s="57" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P3" s="56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="70">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="168">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>59</v>
       </c>
       <c r="H4" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="53" t="s">
-        <v>27</v>
-      </c>
       <c r="K4" s="55" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N4" s="36"/>
       <c r="O4" s="20"/>
       <c r="P4" s="19"/>
     </row>
-    <row r="5" spans="1:16" ht="70">
+    <row r="5" spans="1:16" ht="409.5">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="I5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="53" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="55" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N5" s="36"/>
       <c r="O5" s="20"/>
@@ -1362,22 +1524,22 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="53" t="s">
-        <v>27</v>
-      </c>
       <c r="K6" s="55" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N6" s="36"/>
       <c r="O6" s="20"/>
@@ -1388,22 +1550,22 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H7" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="53" t="s">
-        <v>27</v>
-      </c>
       <c r="K7" s="55" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M7" s="55" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N7" s="36"/>
       <c r="O7" s="20"/>
@@ -1414,22 +1576,22 @@
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H8" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="53" t="s">
-        <v>27</v>
-      </c>
       <c r="K8" s="55" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M8" s="55" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N8" s="18"/>
     </row>
@@ -1438,22 +1600,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H9" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="53" t="s">
-        <v>27</v>
-      </c>
       <c r="K9" s="55" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M9" s="55" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N9" s="18"/>
     </row>
@@ -4319,7 +4481,7 @@
       <c r="M182" s="27"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/src/main/resources/caseconf/identityInvalid/Case_identityInvalid.xlsx
+++ b/src/main/resources/caseconf/identityInvalid/Case_identityInvalid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="identityInvalid" sheetId="2" r:id="rId1"/>
@@ -489,35 +489,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_identity values (50003,693145221335302000,"1001","005",1,"2020-04-10 16:33:55","2020-04-10 16:33:55")</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_identity values (50003,693145221335302000,"1001","005",1,"2020-04-10 16:33:55","2020-04-10 16:33:55")</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item values (10002290,"793145221335302111","1001","009","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (10002319,"793145221335302111","1001","009","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100002901,"793145221335302111","1001","009","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100000251,"793145221335302111","1001","009","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("793145221335302111","1001","009",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("793145221335302111","1001","009","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
 delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
 delete from user_index where tenant_user_id = 005 and tenant_id = 1001;
@@ -642,6 +613,36 @@
   </si>
   <si>
     <t>selSQL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_identity values (50003,693145221335302000,"1001","005",1,"2020-04-10 16:33:55","2020-04-10 16:33:55")
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_identity (id,user_id,tenant_id,tenant_user_id,state,create_time,update_time) values (50003,693145221335302000,"1001","005",1,"2020-04-10 16:33:55","2020-04-10 16:33:55")</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (10002290,"793145221335302111","1001","009","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (10002319,"793145221335302111","1001","009","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100002901,"793145221335302111","1001","009","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100000251,"793145221335302111","1001","009","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("793145221335302111","1001","009",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("793145221335302111","1001","009","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -837,7 +838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1020,6 +1021,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1306,9 +1310,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1318,7 +1322,7 @@
     <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="1.08203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="7.9140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="75.4140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="97.08203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="32" style="8" customWidth="1"/>
     <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
@@ -1376,10 +1380,10 @@
         <v>14</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="409.5" customHeight="1">
@@ -1392,11 +1396,11 @@
       <c r="C2" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="60" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>56</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>22</v>
@@ -1430,11 +1434,11 @@
       <c r="C3" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="60" t="s">
-        <v>54</v>
+      <c r="F3" s="62" t="s">
+        <v>60</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>22</v>
@@ -1469,7 +1473,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>22</v>
@@ -1497,11 +1501,11 @@
       <c r="C5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="60" t="s">
-        <v>55</v>
+      <c r="F5" s="62" t="s">
+        <v>61</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>22</v>

--- a/src/main/resources/caseconf/identityInvalid/Case_identityInvalid.xlsx
+++ b/src/main/resources/caseconf/identityInvalid/Case_identityInvalid.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/identityInvalid/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10380"/>
+    <workbookView xWindow="2360" yWindow="-21520" windowWidth="35600" windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="identityInvalid" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +35,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>lable</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -259,10 +270,6 @@
   </si>
   <si>
     <t>identityInvalid-008</t>
-  </si>
-  <si>
-    <t>select * from user_identity where tenant_user_id = 005 and tenant_id = 1001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -274,7 +281,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>tate</t>
@@ -298,6 +304,13 @@
     "successful": 1
 }</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId":"1001",
+ "tenantUserId":"005"
+}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -310,7 +323,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>",
@@ -322,10 +334,9 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>acc</t>
+      <t>005</t>
     </r>
     <r>
       <rPr>
@@ -333,7 +344,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>"
@@ -344,9 +354,117 @@
   <si>
     <t>{
  "tenantId":"1001",
- "tenantUserId":"005"
+ "tenantUserId":"009"
 }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId":"",
+ "tenantUserId":"1114"
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.IdentityController.invalidIdentity(***.web.request.IdentityInvalidRequest): [Field error in object 'identityInvalidRequest' on field 'tenantId': rejected value []; codes [NotEmpty.identityInvalidRequest.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [identityInvalidRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.IdentityController.invalidIdentity(***.web.request.IdentityInvalidRequest): [Field error in object 'identityInvalidRequest' on field 'tenantUserId': rejected value []; codes [NotBlank.identityInvalidRequest.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [identityInvalidRequest.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [渠道用户id不允许为空]] "
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.IdentityController.invalidIdentity(***.web.request.IdentityInvalidRequest): [Field error in object 'identityInvalidRequest' on field 'tenantId': rejected value [null]; codes [NotEmpty.identityInvalidRequest.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [identityInvalidRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.IdentityController.invalidIdentity(***.web.request.IdentityInvalidRequest): [Field error in object 'identityInvalidRequest' on field 'tenantUserId': rejected value [null]; codes [NotBlank.identityInvalidRequest.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [identityInvalidRequest.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [渠道用户id不允许为空]] "
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态已经失效</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户状态为1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,置为失效成功</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptSQL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>selSQL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (10002290,"793145221335302111","1001","009","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (10002319,"793145221335302111","1001","009","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100002901,"793145221335302111","1001","009","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100000251,"793145221335302111","1001","009","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("793145221335302111","1001","009",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("793145221335302111","1001","009","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_identity values (50003,693145221335302000,"1001","005",1,"2020-04-10 16:33:55","2020-04-10 16:33:55")</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_identity (id,user_id,tenant_id,tenant_user_id,state,create_time,update_time) values (50003,693145221335302000,"1001","005",-2,"2020-04-10 16:33:55","2020-04-10 16:33:55")</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -359,7 +477,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>",
@@ -371,10 +488,9 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>005</t>
+      <t>acc</t>
     </r>
     <r>
       <rPr>
@@ -382,7 +498,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>"
@@ -393,264 +508,55 @@
   <si>
     <t>{
  "tenantId":"1001",
+ "tenantUserId":""
+}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
  "tenantUserId":"009"
 }</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>-2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>{
- "tenantId":"",
- "tenantUserId":"1114"
+ "tenantId":"1001"
 }</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.IdentityController.invalidIdentity(***.web.request.IdentityInvalidRequest): [Field error in object 'identityInvalidRequest' on field 'tenantId': rejected value []; codes [NotEmpty.identityInvalidRequest.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [identityInvalidRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
-}</t>
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id = "005" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "005" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "005" and tenant_id = "1001";
+delete from user_identity where tenant_user_id = "005" and tenant_id = "1001"
+</t>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id = "005" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "005" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "005" and tenant_id = "1001";
+delete from user_identity where tenant_user_id = "005" and tenant_id = "1001";</t>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id = "009" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "009" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "009" and tenant_id = "1001";
+delete from user_identity where tenant_user_id = "009" and tenant_id = "1001"</t>
+  </si>
+  <si>
+    <t>select state  from user_identity where tenant_user_id = 005 and tenant_id = 1001</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "tenantId":"li",
- "tenantUserId":""
-}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.IdentityController.invalidIdentity(***.web.request.IdentityInvalidRequest): [Field error in object 'identityInvalidRequest' on field 'tenantUserId': rejected value []; codes [NotBlank.identityInvalidRequest.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [identityInvalidRequest.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [渠道用户id不允许为空]] "
-}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantUserId":"1114"
-}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.IdentityController.invalidIdentity(***.web.request.IdentityInvalidRequest): [Field error in object 'identityInvalidRequest' on field 'tenantId': rejected value [null]; codes [NotEmpty.identityInvalidRequest.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [identityInvalidRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
-}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantId":"li"
-}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.IdentityController.invalidIdentity(***.web.request.IdentityInvalidRequest): [Field error in object 'identityInvalidRequest' on field 'tenantUserId': rejected value [null]; codes [NotBlank.identityInvalidRequest.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [identityInvalidRequest.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [渠道用户id不允许为空]] "
-}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户状态已经失效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>用户状态为1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,置为失效成功</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_identity where tenant_user_id = 005 and tenant_id = 1001;
-</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id = 009 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 009 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 009 and tenant_id = 1001;
-delete from user_identity where tenant_user_id = 009 and tenant_id = 1001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 005 and tenant_id = 1001;
-delete from user_identity where tenant_user_id = 005 and tenant_id = 1001;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">delete from user_basic_info where tenant_user_id = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"acc"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001;
-delete from user_info_item where tenant_user_id =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"acc"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001;
-delete from user_index where tenant_user_id = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"acc"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001;
-delete from user_identity where tenant_user_id = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"acc"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and tenant_id = 1001;</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptSQL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>selSQL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_identity values (50003,693145221335302000,"1001","005",1,"2020-04-10 16:33:55","2020-04-10 16:33:55")
-</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_identity (id,user_id,tenant_id,tenant_user_id,state,create_time,update_time) values (50003,693145221335302000,"1001","005",1,"2020-04-10 16:33:55","2020-04-10 16:33:55")</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (10002290,"793145221335302111","1001","009","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (10002319,"793145221335302111","1001","009","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100002901,"793145221335302111","1001","009","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100000251,"793145221335302111","1001","009","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("793145221335302111","1001","009",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("793145221335302111","1001","009","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <t>select state from user_identity where tenant_user_id = 005 and tenant_id = 1001</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1005,18 +911,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1024,6 +921,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1310,33 +1216,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="91" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="1.08203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.9140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="97.08203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="1" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="97" style="8" customWidth="1"/>
     <col min="7" max="7" width="32" style="8" customWidth="1"/>
-    <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="15" customWidth="1"/>
-    <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
     <col min="12" max="12" width="26" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
     <col min="14" max="14" width="25.83203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.08203125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="65.9140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15" style="8" customWidth="1"/>
+    <col min="16" max="16" width="65.83203125" style="5" customWidth="1"/>
     <col min="17" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1">
+    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1380,27 +1286,27 @@
         <v>14</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="409.5" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>59</v>
+      <c r="C2" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>51</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>22</v>
@@ -1409,36 +1315,36 @@
         <v>24</v>
       </c>
       <c r="K2" s="55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M2" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="56" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="409.5">
+      <c r="O2" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>55</v>
+      <c r="C3" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>58</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>22</v>
@@ -1447,22 +1353,22 @@
         <v>24</v>
       </c>
       <c r="K3" s="55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M3" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="56" t="s">
+      <c r="N3" s="56" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="168">
+      <c r="O3" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1472,17 +1378,15 @@
       <c r="C4" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="60" t="s">
-        <v>56</v>
-      </c>
+      <c r="G4" s="57"/>
       <c r="H4" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="55" t="s">
-        <v>37</v>
+      <c r="K4" s="62" t="s">
+        <v>53</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>16</v>
@@ -1491,21 +1395,21 @@
       <c r="O4" s="20"/>
       <c r="P4" s="19"/>
     </row>
-    <row r="5" spans="1:16" ht="409.5">
+    <row r="5" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>54</v>
+      <c r="F5" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>59</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>22</v>
@@ -1514,7 +1418,7 @@
         <v>24</v>
       </c>
       <c r="K5" s="55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>23</v>
@@ -1523,7 +1427,7 @@
       <c r="O5" s="20"/>
       <c r="P5" s="19"/>
     </row>
-    <row r="6" spans="1:16" ht="266">
+    <row r="6" spans="1:16" ht="285" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1540,16 +1444,16 @@
         <v>24</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N6" s="36"/>
       <c r="O6" s="20"/>
       <c r="P6" s="37"/>
     </row>
-    <row r="7" spans="1:16" ht="266">
+    <row r="7" spans="1:16" ht="285" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1565,17 +1469,17 @@
       <c r="I7" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="55" t="s">
-        <v>45</v>
+      <c r="K7" s="62" t="s">
+        <v>54</v>
       </c>
       <c r="M7" s="55" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N7" s="36"/>
       <c r="O7" s="20"/>
       <c r="P7" s="19"/>
     </row>
-    <row r="8" spans="1:16" ht="266">
+    <row r="8" spans="1:16" ht="285" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1591,15 +1495,15 @@
       <c r="I8" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="55" t="s">
-        <v>47</v>
+      <c r="K8" s="62" t="s">
+        <v>55</v>
       </c>
       <c r="M8" s="55" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="1:16" ht="266">
+    <row r="9" spans="1:16" ht="285" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1615,15 +1519,15 @@
       <c r="I9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="55" t="s">
-        <v>49</v>
+      <c r="K9" s="62" t="s">
+        <v>56</v>
       </c>
       <c r="M9" s="55" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:16" s="13" customFormat="1" ht="17.5">
+    <row r="10" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="28"/>
@@ -1641,7 +1545,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="39"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="127.5" customHeight="1">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="28"/>
@@ -1659,7 +1563,7 @@
       <c r="O11" s="40"/>
       <c r="P11" s="37"/>
     </row>
-    <row r="12" spans="1:16" s="13" customFormat="1" ht="93" customHeight="1">
+    <row r="12" spans="1:16" s="13" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="28"/>
@@ -1677,7 +1581,7 @@
       <c r="O12" s="40"/>
       <c r="P12" s="41"/>
     </row>
-    <row r="13" spans="1:16" s="13" customFormat="1" ht="17.5">
+    <row r="13" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="21"/>
@@ -1694,7 +1598,7 @@
       <c r="N13" s="27"/>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" ht="17.5">
+    <row r="14" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="32"/>
@@ -1711,7 +1615,7 @@
       <c r="N14" s="35"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="17.5">
+    <row r="15" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="32"/>
@@ -1728,7 +1632,7 @@
       <c r="N15" s="35"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" ht="17.5">
+    <row r="16" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="32"/>
@@ -1745,7 +1649,7 @@
       <c r="N16" s="35"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="17" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="32"/>
@@ -1762,7 +1666,7 @@
       <c r="N17" s="35"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="18" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="32"/>
@@ -1779,7 +1683,7 @@
       <c r="N18" s="35"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="19" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="32"/>
@@ -1796,7 +1700,7 @@
       <c r="N19" s="35"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" ht="110" customHeight="1">
+    <row r="20" spans="1:15" s="13" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="32"/>
@@ -1813,7 +1717,7 @@
       <c r="N20" s="35"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="1:15" ht="17.5">
+    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="28"/>
@@ -1829,7 +1733,7 @@
       <c r="M21" s="27"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="1:15" ht="17.5">
+    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="28"/>
@@ -1845,7 +1749,7 @@
       <c r="M22" s="27"/>
       <c r="N22" s="14"/>
     </row>
-    <row r="23" spans="1:15" ht="17.5">
+    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="28"/>
@@ -1861,7 +1765,7 @@
       <c r="M23" s="27"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="1:15" ht="17.5">
+    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="28"/>
@@ -1877,7 +1781,7 @@
       <c r="M24" s="27"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="1:15" ht="17.5">
+    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="28"/>
@@ -1893,7 +1797,7 @@
       <c r="M25" s="27"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="1:15" ht="17.5">
+    <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="28"/>
@@ -1909,7 +1813,7 @@
       <c r="M26" s="27"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="1:15" ht="167" customHeight="1">
+    <row r="27" spans="1:15" ht="167" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="28"/>
@@ -1925,7 +1829,7 @@
       <c r="M27" s="31"/>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="1:15" ht="207.5" customHeight="1">
+    <row r="28" spans="1:15" ht="207.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="28"/>
@@ -1941,7 +1845,7 @@
       <c r="M28" s="27"/>
       <c r="N28" s="14"/>
     </row>
-    <row r="29" spans="1:15" ht="17.5">
+    <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="28"/>
@@ -1957,7 +1861,7 @@
       <c r="M29" s="27"/>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="30" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="28"/>
@@ -1974,7 +1878,7 @@
       <c r="N30" s="11"/>
       <c r="O30" s="12"/>
     </row>
-    <row r="31" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="31" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="28"/>
@@ -1991,7 +1895,7 @@
       <c r="N31" s="11"/>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="32" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="28"/>
@@ -2008,7 +1912,7 @@
       <c r="N32" s="11"/>
       <c r="O32" s="12"/>
     </row>
-    <row r="33" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="33" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="28"/>
@@ -2025,7 +1929,7 @@
       <c r="N33" s="11"/>
       <c r="O33" s="12"/>
     </row>
-    <row r="34" spans="1:15" ht="17.5">
+    <row r="34" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="28"/>
@@ -2041,7 +1945,7 @@
       <c r="M34" s="31"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="1:15" ht="17.5">
+    <row r="35" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="28"/>
@@ -2057,7 +1961,7 @@
       <c r="M35" s="35"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="1:15" ht="17.5">
+    <row r="36" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="28"/>
@@ -2073,7 +1977,7 @@
       <c r="M36" s="35"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="1:15" ht="114.5" customHeight="1">
+    <row r="37" spans="1:15" ht="114.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="32"/>
@@ -2089,7 +1993,7 @@
       <c r="M37" s="35"/>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" spans="1:15" ht="119" customHeight="1">
+    <row r="38" spans="1:15" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="32"/>
@@ -2105,7 +2009,7 @@
       <c r="M38" s="35"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="1:15" ht="169.5" customHeight="1">
+    <row r="39" spans="1:15" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="43"/>
@@ -2121,7 +2025,7 @@
       <c r="M39" s="27"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="1:15" ht="17.5">
+    <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="28"/>
@@ -2137,7 +2041,7 @@
       <c r="M40" s="27"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="1:15" ht="17.5">
+    <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="32"/>
@@ -2153,7 +2057,7 @@
       <c r="M41" s="27"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" spans="1:15" ht="17.5">
+    <row r="42" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="32"/>
@@ -2169,7 +2073,7 @@
       <c r="M42" s="27"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="43" spans="1:15" ht="17.5">
+    <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="32"/>
@@ -2185,7 +2089,7 @@
       <c r="M43" s="27"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="1:15" ht="105" customHeight="1">
+    <row r="44" spans="1:15" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="32"/>
@@ -2201,7 +2105,7 @@
       <c r="M44" s="27"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" spans="1:15" ht="17.5">
+    <row r="45" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="28"/>
@@ -2217,7 +2121,7 @@
       <c r="M45" s="27"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="1:15" ht="116.5" customHeight="1">
+    <row r="46" spans="1:15" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="28"/>
@@ -2233,7 +2137,7 @@
       <c r="M46" s="27"/>
       <c r="N46" s="9"/>
     </row>
-    <row r="47" spans="1:15" ht="17.5">
+    <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="28"/>
@@ -2249,7 +2153,7 @@
       <c r="M47" s="27"/>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" spans="1:15" ht="17.5">
+    <row r="48" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="28"/>
@@ -2265,7 +2169,7 @@
       <c r="M48" s="27"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="1:15" ht="17.5">
+    <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="28"/>
@@ -2281,7 +2185,7 @@
       <c r="M49" s="27"/>
       <c r="N49" s="9"/>
     </row>
-    <row r="50" spans="1:15" ht="117.5" customHeight="1">
+    <row r="50" spans="1:15" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="28"/>
@@ -2297,7 +2201,7 @@
       <c r="M50" s="27"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="1:15" ht="17.5">
+    <row r="51" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="28"/>
@@ -2313,7 +2217,7 @@
       <c r="M51" s="27"/>
       <c r="N51" s="9"/>
     </row>
-    <row r="52" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="52" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="28"/>
@@ -2330,7 +2234,7 @@
       <c r="N52" s="11"/>
       <c r="O52" s="12"/>
     </row>
-    <row r="53" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="53" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="28"/>
@@ -2347,7 +2251,7 @@
       <c r="N53" s="11"/>
       <c r="O53" s="12"/>
     </row>
-    <row r="54" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="54" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="28"/>
@@ -2364,7 +2268,7 @@
       <c r="N54" s="11"/>
       <c r="O54" s="12"/>
     </row>
-    <row r="55" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="55" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="28"/>
@@ -2381,7 +2285,7 @@
       <c r="N55" s="11"/>
       <c r="O55" s="12"/>
     </row>
-    <row r="56" spans="1:15" s="13" customFormat="1" ht="125" customHeight="1">
+    <row r="56" spans="1:15" s="13" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="28"/>
@@ -2398,7 +2302,7 @@
       <c r="N56" s="9"/>
       <c r="O56" s="12"/>
     </row>
-    <row r="57" spans="1:15" s="13" customFormat="1" ht="166.5" customHeight="1">
+    <row r="57" spans="1:15" s="13" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="28"/>
@@ -2415,7 +2319,7 @@
       <c r="N57" s="9"/>
       <c r="O57" s="12"/>
     </row>
-    <row r="58" spans="1:15" s="13" customFormat="1" ht="110.5" customHeight="1">
+    <row r="58" spans="1:15" s="13" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="28"/>
@@ -2432,7 +2336,7 @@
       <c r="N58" s="9"/>
       <c r="O58" s="12"/>
     </row>
-    <row r="59" spans="1:15" s="13" customFormat="1" ht="131" customHeight="1">
+    <row r="59" spans="1:15" s="13" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="32"/>
@@ -2449,7 +2353,7 @@
       <c r="N59" s="9"/>
       <c r="O59" s="12"/>
     </row>
-    <row r="60" spans="1:15" s="13" customFormat="1" ht="141" customHeight="1">
+    <row r="60" spans="1:15" s="13" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="32"/>
@@ -2466,7 +2370,7 @@
       <c r="N60" s="16"/>
       <c r="O60" s="12"/>
     </row>
-    <row r="61" spans="1:15" s="13" customFormat="1" ht="118.5" customHeight="1">
+    <row r="61" spans="1:15" s="13" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="32"/>
@@ -2483,7 +2387,7 @@
       <c r="N61" s="16"/>
       <c r="O61" s="12"/>
     </row>
-    <row r="62" spans="1:15" s="13" customFormat="1" ht="123" customHeight="1">
+    <row r="62" spans="1:15" s="13" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="32"/>
@@ -2500,7 +2404,7 @@
       <c r="N62" s="16"/>
       <c r="O62" s="12"/>
     </row>
-    <row r="63" spans="1:15" s="13" customFormat="1" ht="148.5" customHeight="1">
+    <row r="63" spans="1:15" s="13" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="32"/>
@@ -2517,7 +2421,7 @@
       <c r="N63" s="16"/>
       <c r="O63" s="12"/>
     </row>
-    <row r="64" spans="1:15" s="13" customFormat="1" ht="191.5" customHeight="1">
+    <row r="64" spans="1:15" s="13" customFormat="1" ht="191.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="32"/>
@@ -2534,7 +2438,7 @@
       <c r="N64" s="16"/>
       <c r="O64" s="12"/>
     </row>
-    <row r="65" spans="1:15" s="13" customFormat="1" ht="128" customHeight="1">
+    <row r="65" spans="1:15" s="13" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="32"/>
@@ -2551,7 +2455,7 @@
       <c r="N65" s="16"/>
       <c r="O65" s="12"/>
     </row>
-    <row r="66" spans="1:15" s="13" customFormat="1" ht="96.5" customHeight="1">
+    <row r="66" spans="1:15" s="13" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="32"/>
@@ -2568,7 +2472,7 @@
       <c r="N66" s="16"/>
       <c r="O66" s="12"/>
     </row>
-    <row r="67" spans="1:15" s="13" customFormat="1" ht="100.5" customHeight="1">
+    <row r="67" spans="1:15" s="13" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="32"/>
@@ -2585,7 +2489,7 @@
       <c r="N67" s="16"/>
       <c r="O67" s="12"/>
     </row>
-    <row r="68" spans="1:15" s="13" customFormat="1" ht="156.5" customHeight="1">
+    <row r="68" spans="1:15" s="13" customFormat="1" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="32"/>
@@ -2602,7 +2506,7 @@
       <c r="N68" s="16"/>
       <c r="O68" s="12"/>
     </row>
-    <row r="69" spans="1:15" s="13" customFormat="1" ht="111" customHeight="1">
+    <row r="69" spans="1:15" s="13" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="32"/>
@@ -2619,7 +2523,7 @@
       <c r="N69" s="16"/>
       <c r="O69" s="12"/>
     </row>
-    <row r="70" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="70" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="32"/>
@@ -2636,7 +2540,7 @@
       <c r="N70" s="16"/>
       <c r="O70" s="12"/>
     </row>
-    <row r="71" spans="1:15" s="13" customFormat="1" ht="161.5" customHeight="1">
+    <row r="71" spans="1:15" s="13" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="32"/>
@@ -2653,7 +2557,7 @@
       <c r="N71" s="16"/>
       <c r="O71" s="12"/>
     </row>
-    <row r="72" spans="1:15" s="13" customFormat="1" ht="154.5" customHeight="1">
+    <row r="72" spans="1:15" s="13" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="32"/>
@@ -2670,7 +2574,7 @@
       <c r="N72" s="9"/>
       <c r="O72" s="12"/>
     </row>
-    <row r="73" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="73" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="32"/>
@@ -2687,7 +2591,7 @@
       <c r="N73" s="9"/>
       <c r="O73" s="12"/>
     </row>
-    <row r="74" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="74" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="32"/>
@@ -2704,7 +2608,7 @@
       <c r="N74" s="14"/>
       <c r="O74" s="12"/>
     </row>
-    <row r="75" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="75" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="32"/>
@@ -2721,7 +2625,7 @@
       <c r="N75" s="14"/>
       <c r="O75" s="12"/>
     </row>
-    <row r="76" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="76" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="32"/>
@@ -2738,7 +2642,7 @@
       <c r="N76" s="14"/>
       <c r="O76" s="12"/>
     </row>
-    <row r="77" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="77" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="32"/>
@@ -2755,7 +2659,7 @@
       <c r="N77" s="14"/>
       <c r="O77" s="12"/>
     </row>
-    <row r="78" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="78" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="28"/>
@@ -2772,7 +2676,7 @@
       <c r="N78" s="9"/>
       <c r="O78" s="12"/>
     </row>
-    <row r="79" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="79" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="28"/>
@@ -2789,7 +2693,7 @@
       <c r="N79" s="9"/>
       <c r="O79" s="12"/>
     </row>
-    <row r="80" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="80" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="28"/>
@@ -2806,7 +2710,7 @@
       <c r="N80" s="9"/>
       <c r="O80" s="12"/>
     </row>
-    <row r="81" spans="1:15" s="13" customFormat="1" ht="204" customHeight="1">
+    <row r="81" spans="1:15" s="13" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="28"/>
@@ -2823,7 +2727,7 @@
       <c r="N81" s="14"/>
       <c r="O81" s="12"/>
     </row>
-    <row r="82" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="82" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="28"/>
@@ -2840,7 +2744,7 @@
       <c r="N82" s="14"/>
       <c r="O82" s="12"/>
     </row>
-    <row r="83" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="83" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="28"/>
@@ -2857,7 +2761,7 @@
       <c r="N83" s="16"/>
       <c r="O83" s="12"/>
     </row>
-    <row r="84" spans="1:15" ht="17.5">
+    <row r="84" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="28"/>
@@ -2873,7 +2777,7 @@
       <c r="M84" s="27"/>
       <c r="N84" s="11"/>
     </row>
-    <row r="85" spans="1:15" ht="158.5" customHeight="1">
+    <row r="85" spans="1:15" ht="158.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="28"/>
@@ -2889,7 +2793,7 @@
       <c r="M85" s="27"/>
       <c r="N85" s="11"/>
     </row>
-    <row r="86" spans="1:15" ht="17.5">
+    <row r="86" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="28"/>
@@ -2905,7 +2809,7 @@
       <c r="M86" s="31"/>
       <c r="N86" s="11"/>
     </row>
-    <row r="87" spans="1:15" ht="91.75" customHeight="1">
+    <row r="87" spans="1:15" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="28"/>
@@ -2921,7 +2825,7 @@
       <c r="M87" s="31"/>
       <c r="N87" s="11"/>
     </row>
-    <row r="88" spans="1:15" ht="165" customHeight="1">
+    <row r="88" spans="1:15" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="28"/>
@@ -2937,7 +2841,7 @@
       <c r="M88" s="45"/>
       <c r="N88" s="9"/>
     </row>
-    <row r="89" spans="1:15" ht="108" customHeight="1">
+    <row r="89" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="28"/>
@@ -2953,7 +2857,7 @@
       <c r="M89" s="35"/>
       <c r="N89" s="9"/>
     </row>
-    <row r="90" spans="1:15" ht="101" customHeight="1">
+    <row r="90" spans="1:15" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="28"/>
@@ -2969,7 +2873,7 @@
       <c r="M90" s="35"/>
       <c r="N90" s="9"/>
     </row>
-    <row r="91" spans="1:15" ht="88" customHeight="1">
+    <row r="91" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="32"/>
@@ -2985,7 +2889,7 @@
       <c r="M91" s="35"/>
       <c r="N91" s="9"/>
     </row>
-    <row r="92" spans="1:15" ht="98" customHeight="1">
+    <row r="92" spans="1:15" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="32"/>
@@ -3001,7 +2905,7 @@
       <c r="M92" s="35"/>
       <c r="N92" s="9"/>
     </row>
-    <row r="93" spans="1:15" ht="156" customHeight="1">
+    <row r="93" spans="1:15" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="32"/>
@@ -3017,7 +2921,7 @@
       <c r="M93" s="27"/>
       <c r="N93" s="9"/>
     </row>
-    <row r="94" spans="1:15" ht="172.5" customHeight="1">
+    <row r="94" spans="1:15" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="32"/>
@@ -3033,7 +2937,7 @@
       <c r="M94" s="27"/>
       <c r="N94" s="9"/>
     </row>
-    <row r="95" spans="1:15" ht="79" customHeight="1">
+    <row r="95" spans="1:15" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="32"/>
@@ -3049,7 +2953,7 @@
       <c r="M95" s="27"/>
       <c r="N95" s="9"/>
     </row>
-    <row r="96" spans="1:15" ht="102.5" customHeight="1">
+    <row r="96" spans="1:15" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="32"/>
@@ -3065,7 +2969,7 @@
       <c r="M96" s="27"/>
       <c r="N96" s="9"/>
     </row>
-    <row r="97" spans="1:14" ht="51" customHeight="1">
+    <row r="97" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="32"/>
@@ -3081,7 +2985,7 @@
       <c r="M97" s="27"/>
       <c r="N97" s="9"/>
     </row>
-    <row r="98" spans="1:14" ht="121.25" customHeight="1">
+    <row r="98" spans="1:14" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="32"/>
@@ -3097,7 +3001,7 @@
       <c r="M98" s="27"/>
       <c r="N98" s="9"/>
     </row>
-    <row r="99" spans="1:14" ht="49.5" customHeight="1">
+    <row r="99" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="32"/>
@@ -3113,7 +3017,7 @@
       <c r="M99" s="27"/>
       <c r="N99" s="9"/>
     </row>
-    <row r="100" spans="1:14" ht="56.4" customHeight="1">
+    <row r="100" spans="1:14" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="32"/>
@@ -3129,7 +3033,7 @@
       <c r="M100" s="27"/>
       <c r="N100" s="9"/>
     </row>
-    <row r="101" spans="1:14" ht="104" customHeight="1">
+    <row r="101" spans="1:14" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="32"/>
@@ -3145,7 +3049,7 @@
       <c r="M101" s="27"/>
       <c r="N101" s="9"/>
     </row>
-    <row r="102" spans="1:14" ht="95.4" customHeight="1">
+    <row r="102" spans="1:14" ht="95.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="32"/>
@@ -3161,7 +3065,7 @@
       <c r="M102" s="27"/>
       <c r="N102" s="9"/>
     </row>
-    <row r="103" spans="1:14" ht="78" customHeight="1">
+    <row r="103" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="32"/>
@@ -3177,7 +3081,7 @@
       <c r="M103" s="27"/>
       <c r="N103" s="9"/>
     </row>
-    <row r="104" spans="1:14" ht="17.5">
+    <row r="104" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="32"/>
@@ -3193,7 +3097,7 @@
       <c r="M104" s="27"/>
       <c r="N104" s="9"/>
     </row>
-    <row r="105" spans="1:14" ht="17.5">
+    <row r="105" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="32"/>
@@ -3209,7 +3113,7 @@
       <c r="M105" s="27"/>
       <c r="N105" s="9"/>
     </row>
-    <row r="106" spans="1:14" ht="17.5">
+    <row r="106" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="32"/>
@@ -3225,7 +3129,7 @@
       <c r="M106" s="27"/>
       <c r="N106" s="9"/>
     </row>
-    <row r="107" spans="1:14" ht="17.5">
+    <row r="107" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="32"/>
@@ -3241,7 +3145,7 @@
       <c r="M107" s="27"/>
       <c r="N107" s="9"/>
     </row>
-    <row r="108" spans="1:14" ht="17.5">
+    <row r="108" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="32"/>
@@ -3257,7 +3161,7 @@
       <c r="M108" s="27"/>
       <c r="N108" s="9"/>
     </row>
-    <row r="109" spans="1:14" ht="17.5">
+    <row r="109" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="32"/>
@@ -3273,7 +3177,7 @@
       <c r="M109" s="27"/>
       <c r="N109" s="9"/>
     </row>
-    <row r="110" spans="1:14" ht="17.5">
+    <row r="110" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="32"/>
@@ -3289,7 +3193,7 @@
       <c r="M110" s="27"/>
       <c r="N110" s="9"/>
     </row>
-    <row r="111" spans="1:14" ht="17.5">
+    <row r="111" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="32"/>
@@ -3305,7 +3209,7 @@
       <c r="M111" s="27"/>
       <c r="N111" s="9"/>
     </row>
-    <row r="112" spans="1:14" ht="108" customHeight="1">
+    <row r="112" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="32"/>
@@ -3321,7 +3225,7 @@
       <c r="M112" s="27"/>
       <c r="N112" s="9"/>
     </row>
-    <row r="113" spans="1:14" ht="17.5">
+    <row r="113" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="32"/>
@@ -3337,7 +3241,7 @@
       <c r="M113" s="27"/>
       <c r="N113" s="9"/>
     </row>
-    <row r="114" spans="1:14" ht="17.5">
+    <row r="114" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="32"/>
@@ -3353,7 +3257,7 @@
       <c r="M114" s="27"/>
       <c r="N114" s="9"/>
     </row>
-    <row r="115" spans="1:14" ht="70.75" customHeight="1">
+    <row r="115" spans="1:14" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="32"/>
@@ -3369,7 +3273,7 @@
       <c r="M115" s="27"/>
       <c r="N115" s="9"/>
     </row>
-    <row r="116" spans="1:14" ht="17.5">
+    <row r="116" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="32"/>
@@ -3385,7 +3289,7 @@
       <c r="M116" s="27"/>
       <c r="N116" s="9"/>
     </row>
-    <row r="117" spans="1:14" ht="17.5">
+    <row r="117" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="32"/>
@@ -3401,7 +3305,7 @@
       <c r="M117" s="27"/>
       <c r="N117" s="11"/>
     </row>
-    <row r="118" spans="1:14" ht="17.5">
+    <row r="118" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="32"/>
@@ -3417,7 +3321,7 @@
       <c r="M118" s="27"/>
       <c r="N118" s="11"/>
     </row>
-    <row r="119" spans="1:14" ht="17.5">
+    <row r="119" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="32"/>
@@ -3433,7 +3337,7 @@
       <c r="M119" s="27"/>
       <c r="N119" s="11"/>
     </row>
-    <row r="120" spans="1:14" ht="17.5">
+    <row r="120" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="32"/>
@@ -3449,7 +3353,7 @@
       <c r="M120" s="27"/>
       <c r="N120" s="11"/>
     </row>
-    <row r="121" spans="1:14" ht="17.5">
+    <row r="121" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="32"/>
@@ -3465,7 +3369,7 @@
       <c r="M121" s="27"/>
       <c r="N121" s="11"/>
     </row>
-    <row r="122" spans="1:14" ht="17.5">
+    <row r="122" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="28"/>
@@ -3481,7 +3385,7 @@
       <c r="M122" s="35"/>
       <c r="N122" s="11"/>
     </row>
-    <row r="123" spans="1:14" ht="17.5">
+    <row r="123" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="32"/>
@@ -3497,7 +3401,7 @@
       <c r="M123" s="35"/>
       <c r="N123" s="11"/>
     </row>
-    <row r="124" spans="1:14" ht="17.5">
+    <row r="124" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="32"/>
@@ -3513,7 +3417,7 @@
       <c r="M124" s="35"/>
       <c r="N124" s="11"/>
     </row>
-    <row r="125" spans="1:14" ht="17.5">
+    <row r="125" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="32"/>
@@ -3529,7 +3433,7 @@
       <c r="M125" s="35"/>
       <c r="N125" s="11"/>
     </row>
-    <row r="126" spans="1:14" ht="17.5">
+    <row r="126" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="32"/>
@@ -3545,7 +3449,7 @@
       <c r="M126" s="35"/>
       <c r="N126" s="11"/>
     </row>
-    <row r="127" spans="1:14" ht="17.5">
+    <row r="127" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="32"/>
@@ -3561,7 +3465,7 @@
       <c r="M127" s="35"/>
       <c r="N127" s="9"/>
     </row>
-    <row r="128" spans="1:14" ht="88" customHeight="1">
+    <row r="128" spans="1:14" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="32"/>
@@ -3577,7 +3481,7 @@
       <c r="M128" s="35"/>
       <c r="N128" s="9"/>
     </row>
-    <row r="129" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="129" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="32"/>
@@ -3594,7 +3498,7 @@
       <c r="N129" s="11"/>
       <c r="O129" s="12"/>
     </row>
-    <row r="130" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="130" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="32"/>
@@ -3611,7 +3515,7 @@
       <c r="N130" s="11"/>
       <c r="O130" s="12"/>
     </row>
-    <row r="131" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="131" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="32"/>
@@ -3628,7 +3532,7 @@
       <c r="N131" s="11"/>
       <c r="O131" s="12"/>
     </row>
-    <row r="132" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="132" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="28"/>
@@ -3645,7 +3549,7 @@
       <c r="N132" s="14"/>
       <c r="O132" s="12"/>
     </row>
-    <row r="133" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="133" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="28"/>
@@ -3662,7 +3566,7 @@
       <c r="N133" s="9"/>
       <c r="O133" s="12"/>
     </row>
-    <row r="134" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="134" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="28"/>
@@ -3679,7 +3583,7 @@
       <c r="N134" s="9"/>
       <c r="O134" s="12"/>
     </row>
-    <row r="135" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="135" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="28"/>
@@ -3696,7 +3600,7 @@
       <c r="N135" s="9"/>
       <c r="O135" s="12"/>
     </row>
-    <row r="136" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="136" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="32"/>
@@ -3713,7 +3617,7 @@
       <c r="N136" s="9"/>
       <c r="O136" s="12"/>
     </row>
-    <row r="137" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="137" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="28"/>
@@ -3730,7 +3634,7 @@
       <c r="N137" s="9"/>
       <c r="O137" s="12"/>
     </row>
-    <row r="138" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="138" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="43"/>
@@ -3747,7 +3651,7 @@
       <c r="N138" s="9"/>
       <c r="O138" s="12"/>
     </row>
-    <row r="139" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="139" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="28"/>
@@ -3764,7 +3668,7 @@
       <c r="N139" s="9"/>
       <c r="O139" s="12"/>
     </row>
-    <row r="140" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="140" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="28"/>
@@ -3781,7 +3685,7 @@
       <c r="N140" s="9"/>
       <c r="O140" s="12"/>
     </row>
-    <row r="141" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="141" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="28"/>
@@ -3798,7 +3702,7 @@
       <c r="N141" s="9"/>
       <c r="O141" s="12"/>
     </row>
-    <row r="142" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="142" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="28"/>
@@ -3815,7 +3719,7 @@
       <c r="N142" s="9"/>
       <c r="O142" s="12"/>
     </row>
-    <row r="143" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="143" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="28"/>
@@ -3832,7 +3736,7 @@
       <c r="N143" s="9"/>
       <c r="O143" s="12"/>
     </row>
-    <row r="144" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="144" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="28"/>
@@ -3849,7 +3753,7 @@
       <c r="N144" s="9"/>
       <c r="O144" s="12"/>
     </row>
-    <row r="145" spans="1:15" s="13" customFormat="1" ht="145.25" customHeight="1">
+    <row r="145" spans="1:15" s="13" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="28"/>
@@ -3866,7 +3770,7 @@
       <c r="N145" s="14"/>
       <c r="O145" s="12"/>
     </row>
-    <row r="146" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="146" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="28"/>
@@ -3883,7 +3787,7 @@
       <c r="N146" s="9"/>
       <c r="O146" s="12"/>
     </row>
-    <row r="147" spans="1:15" s="13" customFormat="1" ht="112.25" customHeight="1">
+    <row r="147" spans="1:15" s="13" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="28"/>
@@ -3900,7 +3804,7 @@
       <c r="N147" s="14"/>
       <c r="O147" s="12"/>
     </row>
-    <row r="148" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="148" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="28"/>
@@ -3917,7 +3821,7 @@
       <c r="N148" s="11"/>
       <c r="O148" s="12"/>
     </row>
-    <row r="149" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="149" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="28"/>
@@ -3934,7 +3838,7 @@
       <c r="N149" s="11"/>
       <c r="O149" s="12"/>
     </row>
-    <row r="150" spans="1:15" s="13" customFormat="1" ht="132.65" customHeight="1">
+    <row r="150" spans="1:15" s="13" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="28"/>
@@ -3951,7 +3855,7 @@
       <c r="N150" s="11"/>
       <c r="O150" s="12"/>
     </row>
-    <row r="151" spans="1:15" s="13" customFormat="1" ht="120.65" customHeight="1">
+    <row r="151" spans="1:15" s="13" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="28"/>
@@ -3968,7 +3872,7 @@
       <c r="N151" s="11"/>
       <c r="O151" s="12"/>
     </row>
-    <row r="152" spans="1:15" s="13" customFormat="1" ht="17.5">
+    <row r="152" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="28"/>
@@ -3985,7 +3889,7 @@
       <c r="N152" s="9"/>
       <c r="O152" s="12"/>
     </row>
-    <row r="153" spans="1:15" s="13" customFormat="1" ht="121.25" customHeight="1">
+    <row r="153" spans="1:15" s="13" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="28"/>
@@ -4002,7 +3906,7 @@
       <c r="N153" s="14"/>
       <c r="O153" s="12"/>
     </row>
-    <row r="154" spans="1:15" s="13" customFormat="1" ht="82.75" customHeight="1">
+    <row r="154" spans="1:15" s="13" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="28"/>
@@ -4019,7 +3923,7 @@
       <c r="N154" s="14"/>
       <c r="O154" s="12"/>
     </row>
-    <row r="155" spans="1:15" s="13" customFormat="1" ht="111" customHeight="1">
+    <row r="155" spans="1:15" s="13" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="32"/>
@@ -4036,7 +3940,7 @@
       <c r="N155" s="14"/>
       <c r="O155" s="12"/>
     </row>
-    <row r="156" spans="1:15" s="13" customFormat="1" ht="91.25" customHeight="1">
+    <row r="156" spans="1:15" s="13" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
       <c r="C156" s="32"/>
@@ -4053,7 +3957,7 @@
       <c r="N156" s="14"/>
       <c r="O156" s="12"/>
     </row>
-    <row r="157" spans="1:15" s="13" customFormat="1" ht="63.65" customHeight="1">
+    <row r="157" spans="1:15" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="32"/>
@@ -4070,7 +3974,7 @@
       <c r="N157" s="14"/>
       <c r="O157" s="12"/>
     </row>
-    <row r="158" spans="1:15" s="13" customFormat="1" ht="79.75" customHeight="1">
+    <row r="158" spans="1:15" s="13" customFormat="1" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="32"/>
@@ -4087,7 +3991,7 @@
       <c r="N158" s="14"/>
       <c r="O158" s="12"/>
     </row>
-    <row r="159" spans="1:15" ht="45.65" customHeight="1">
+    <row r="159" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="32"/>
@@ -4103,7 +4007,7 @@
       <c r="M159" s="31"/>
       <c r="N159" s="9"/>
     </row>
-    <row r="160" spans="1:15" ht="82.75" customHeight="1">
+    <row r="160" spans="1:15" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="32"/>
@@ -4119,7 +4023,7 @@
       <c r="M160" s="31"/>
       <c r="N160" s="9"/>
     </row>
-    <row r="161" spans="1:16" ht="17.5">
+    <row r="161" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="28"/>
@@ -4135,7 +4039,7 @@
       <c r="M161" s="31"/>
       <c r="N161" s="9"/>
     </row>
-    <row r="162" spans="1:16" ht="100.25" customHeight="1">
+    <row r="162" spans="1:16" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="28"/>
@@ -4151,7 +4055,7 @@
       <c r="M162" s="31"/>
       <c r="N162" s="9"/>
     </row>
-    <row r="163" spans="1:16" ht="103.25" customHeight="1">
+    <row r="163" spans="1:16" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="28"/>
@@ -4167,7 +4071,7 @@
       <c r="M163" s="31"/>
       <c r="N163" s="9"/>
     </row>
-    <row r="164" spans="1:16" ht="89.4" customHeight="1">
+    <row r="164" spans="1:16" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="32"/>
@@ -4183,7 +4087,7 @@
       <c r="M164" s="27"/>
       <c r="N164" s="9"/>
     </row>
-    <row r="165" spans="1:16" ht="77.400000000000006" customHeight="1">
+    <row r="165" spans="1:16" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="32"/>
@@ -4199,7 +4103,7 @@
       <c r="M165" s="27"/>
       <c r="N165" s="17"/>
     </row>
-    <row r="166" spans="1:16" ht="73.25" customHeight="1">
+    <row r="166" spans="1:16" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="21"/>
@@ -4217,7 +4121,7 @@
       <c r="O166" s="51"/>
       <c r="P166" s="49"/>
     </row>
-    <row r="167" spans="1:16" ht="102.5" customHeight="1">
+    <row r="167" spans="1:16" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
       <c r="C167" s="21"/>
@@ -4235,7 +4139,7 @@
       <c r="O167" s="51"/>
       <c r="P167" s="49"/>
     </row>
-    <row r="168" spans="1:16" ht="73.25" customHeight="1">
+    <row r="168" spans="1:16" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="21"/>
@@ -4251,7 +4155,7 @@
       <c r="M168" s="27"/>
       <c r="N168" s="14"/>
     </row>
-    <row r="169" spans="1:16" ht="67.75" customHeight="1">
+    <row r="169" spans="1:16" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="28"/>
@@ -4269,7 +4173,7 @@
       <c r="O169" s="51"/>
       <c r="P169" s="49"/>
     </row>
-    <row r="170" spans="1:16" ht="71.400000000000006" customHeight="1">
+    <row r="170" spans="1:16" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="28"/>
@@ -4287,7 +4191,7 @@
       <c r="O170" s="51"/>
       <c r="P170" s="49"/>
     </row>
-    <row r="171" spans="1:16" ht="69.650000000000006" customHeight="1">
+    <row r="171" spans="1:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="28"/>
@@ -4305,7 +4209,7 @@
       <c r="O171" s="51"/>
       <c r="P171" s="49"/>
     </row>
-    <row r="172" spans="1:16" ht="43.25" customHeight="1">
+    <row r="172" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="28"/>
@@ -4323,7 +4227,7 @@
       <c r="O172" s="51"/>
       <c r="P172" s="49"/>
     </row>
-    <row r="173" spans="1:16" ht="53.4" customHeight="1">
+    <row r="173" spans="1:16" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="28"/>
@@ -4341,7 +4245,7 @@
       <c r="O173" s="38"/>
       <c r="P173" s="49"/>
     </row>
-    <row r="174" spans="1:16" ht="79.25" customHeight="1">
+    <row r="174" spans="1:16" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="28"/>
@@ -4359,7 +4263,7 @@
       <c r="O174" s="38"/>
       <c r="P174" s="49"/>
     </row>
-    <row r="175" spans="1:16" ht="120.65" customHeight="1">
+    <row r="175" spans="1:16" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="28"/>
@@ -4377,7 +4281,7 @@
       <c r="O175" s="38"/>
       <c r="P175" s="49"/>
     </row>
-    <row r="176" spans="1:16" ht="94.75" customHeight="1">
+    <row r="176" spans="1:16" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="32"/>
@@ -4393,7 +4297,7 @@
       <c r="M176" s="27"/>
       <c r="N176" s="9"/>
     </row>
-    <row r="177" spans="1:14" ht="67.75" customHeight="1">
+    <row r="177" spans="1:14" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
       <c r="C177" s="32"/>
@@ -4409,7 +4313,7 @@
       <c r="M177" s="27"/>
       <c r="N177" s="9"/>
     </row>
-    <row r="178" spans="1:14" ht="17.5">
+    <row r="178" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
       <c r="C178" s="32"/>
@@ -4424,7 +4328,7 @@
       <c r="L178" s="24"/>
       <c r="M178" s="27"/>
     </row>
-    <row r="179" spans="1:14" ht="17.5">
+    <row r="179" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
       <c r="C179" s="32"/>
@@ -4439,7 +4343,7 @@
       <c r="L179" s="24"/>
       <c r="M179" s="27"/>
     </row>
-    <row r="180" spans="1:14" ht="17.5">
+    <row r="180" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
       <c r="C180" s="32"/>
@@ -4454,7 +4358,7 @@
       <c r="L180" s="24"/>
       <c r="M180" s="27"/>
     </row>
-    <row r="181" spans="1:14" ht="17.5">
+    <row r="181" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
       <c r="C181" s="32"/>
@@ -4469,7 +4373,7 @@
       <c r="L181" s="24"/>
       <c r="M181" s="27"/>
     </row>
-    <row r="182" spans="1:14" ht="17.5">
+    <row r="182" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
       <c r="C182" s="32"/>

--- a/src/main/resources/caseconf/identityInvalid/Case_identityInvalid.xlsx
+++ b/src/main/resources/caseconf/identityInvalid/Case_identityInvalid.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/identityInvalid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform0518/src/main/resources/caseconf/identityInvalid/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="-21520" windowWidth="35600" windowHeight="17520"/>
+    <workbookView xWindow="-2100" yWindow="-24960" windowWidth="35600" windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="identityInvalid" sheetId="2" r:id="rId1"/>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>lable</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -447,26 +447,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_identity values (50003,693145221335302000,"1001","005",1,"2020-04-10 16:33:55","2020-04-10 16:33:55")</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_identity (id,user_id,tenant_id,tenant_user_id,state,create_time,update_time) values (50003,693145221335302000,"1001","005",-2,"2020-04-10 16:33:55","2020-04-10 16:33:55")</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>{
  "tenantId":"1001</t>
@@ -532,23 +512,60 @@
 </t>
   </si>
   <si>
+    <t>delete from user_basic_info where tenant_user_id = "009" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "009" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "009" and tenant_id = "1001";
+delete from user_identity where tenant_user_id = "009" and tenant_id = "1001"</t>
+  </si>
+  <si>
+    <t>select state  from user_identity where tenant_user_id = 005 and tenant_id = 1001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>select state from user_identity where tenant_user_id = 005 and tenant_id = 1001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>delete from user_basic_info where tenant_user_id = "005" and tenant_id = "1001";
 delete from user_info_item where tenant_user_id = "005" and tenant_id = "1001";
 delete from user_index where tenant_user_id = "005" and tenant_id = "1001";
 delete from user_identity where tenant_user_id = "005" and tenant_id = "1001";</t>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id = "009" and tenant_id = "1001";
-delete from user_info_item where tenant_user_id = "009" and tenant_id = "1001";
-delete from user_index where tenant_user_id = "009" and tenant_id = "1001";
-delete from user_identity where tenant_user_id = "009" and tenant_id = "1001"</t>
-  </si>
-  <si>
-    <t>select state  from user_identity where tenant_user_id = 005 and tenant_id = 1001</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>select state from user_identity where tenant_user_id = 005 and tenant_id = 1001</t>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100012,"693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (100013,"693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000019,"693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1000015,"693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_identity (id,user_id,tenant_id,tenant_user_id,state,create_time,update_time) values (50003,693145221335302000,"1001","005",-2,"2020-04-10 16:33:55","2020-04-10 16:33:55")</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","name","小*","eekP9VyRvXk=","98ac8b2e18dbe4d5d48476c3e4a6117a","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","mobileNo","188****4567","G3JYk3fRRlBOdViXLo0tew==","484e9186760f37b5ac9b12673bc6fbf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","certNo","3412**********0000","HvKVuVOWbFJb6Kc2dVhAJ9E6+xVHZ3aR","2bb6fa304390f4ebdf1479372649b515","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values ("693145221335302000","1001","005","email","1234***@126.com","MWlkkKNlWhAWe1hFrnRunA==","a71249d4fe6f56f76de86b532ef74c1b","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("693145221335302000","1001","005",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("693145221335302000","1001","005","dd9b724235b53f967403fd775722d3c2","f87a900fea1eaaa6cca908c06ec83fb0","9c7758b5dfa2e4812205aee611dee221","a35dd421455c69c87975cbcf86507527","2b9125400fcec8cf343e9a5f168bb0f1","46d616c8334ae439d68234c2be5f8447","d401fb8af990da1327d67fb7b9181d00","22a6be6cc8242297842251b3d14f92b7","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_identity (user_id,tenant_id,tenant_user_id,state,create_time,update_time)values ("693145221335302000","1001","005",1,"2020-04-10 16:33:55","2020-04-10 16:33:55")</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_centeridentityRecord:userId:693145221335302000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_centeridentityRecord:userId:693145221335302000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_centeridentityRecord:userId:693145221335302000</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -744,7 +761,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -930,6 +947,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1214,11 +1237,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P182"/>
+  <dimension ref="A1:Q182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="91" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="91" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1232,17 +1255,18 @@
     <col min="7" max="7" width="32" style="8" customWidth="1"/>
     <col min="8" max="8" width="31.83203125" style="8" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="29.83203125" style="8" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="24.1640625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="26" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="25.83203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15" style="8" customWidth="1"/>
-    <col min="16" max="16" width="65.83203125" style="5" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="5"/>
+    <col min="10" max="10" width="29.83203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="43.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="26" style="5" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="25.83203125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="15" style="8" customWidth="1"/>
+    <col min="17" max="17" width="65.83203125" style="5" customWidth="1"/>
+    <col min="18" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1270,29 +1294,32 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1303,10 +1330,10 @@
         <v>47</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>22</v>
@@ -1314,23 +1341,26 @@
       <c r="I2" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="J2" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="N2" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="O2" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="P2" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="409" x14ac:dyDescent="0.2">
+      <c r="Q2" s="61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1341,10 +1371,10 @@
         <v>46</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>59</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>22</v>
@@ -1352,23 +1382,26 @@
       <c r="I3" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="J3" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="N3" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="O3" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="56" t="s">
+      <c r="P3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+      <c r="Q3" s="61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1385,17 +1418,17 @@
       <c r="I4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="19"/>
-    </row>
-    <row r="5" spans="1:16" ht="409" x14ac:dyDescent="0.2">
+      <c r="O4" s="36"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1409,7 +1442,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>22</v>
@@ -1417,17 +1450,20 @@
       <c r="I5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="J5" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="19"/>
-    </row>
-    <row r="6" spans="1:16" ht="285" x14ac:dyDescent="0.2">
+      <c r="O5" s="36"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="1:17" ht="285" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1443,17 +1479,18 @@
       <c r="I6" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="J6" s="53"/>
+      <c r="L6" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="55" t="s">
+      <c r="N6" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="37"/>
-    </row>
-    <row r="7" spans="1:16" ht="285" x14ac:dyDescent="0.2">
+      <c r="O6" s="36"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="37"/>
+    </row>
+    <row r="7" spans="1:17" ht="285" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1469,17 +1506,18 @@
       <c r="I7" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="55" t="s">
+      <c r="J7" s="53"/>
+      <c r="L7" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="19"/>
-    </row>
-    <row r="8" spans="1:16" ht="285" x14ac:dyDescent="0.2">
+      <c r="O7" s="36"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="1:17" ht="285" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1495,15 +1533,16 @@
       <c r="I8" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="55" t="s">
+      <c r="J8" s="53"/>
+      <c r="L8" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="18"/>
-    </row>
-    <row r="9" spans="1:16" ht="285" x14ac:dyDescent="0.2">
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:17" ht="285" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1519,15 +1558,16 @@
       <c r="I9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="55" t="s">
+      <c r="J9" s="53"/>
+      <c r="L9" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="18"/>
-    </row>
-    <row r="10" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:17" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="28"/>
@@ -1537,15 +1577,16 @@
       <c r="G10" s="21"/>
       <c r="H10" s="10"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="31"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="29"/>
       <c r="N10" s="31"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="39"/>
-    </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="31"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="39"/>
+    </row>
+    <row r="11" spans="1:17" s="13" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="28"/>
@@ -1555,15 +1596,16 @@
       <c r="G11" s="21"/>
       <c r="H11" s="10"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="37"/>
-    </row>
-    <row r="12" spans="1:16" s="13" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="37"/>
+    </row>
+    <row r="12" spans="1:17" s="13" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="28"/>
@@ -1573,15 +1615,16 @@
       <c r="G12" s="21"/>
       <c r="H12" s="10"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="41"/>
-    </row>
-    <row r="13" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="41"/>
+    </row>
+    <row r="13" spans="1:17" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="21"/>
@@ -1591,14 +1634,15 @@
       <c r="G13" s="23"/>
       <c r="H13" s="10"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="27"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="24"/>
       <c r="N13" s="27"/>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="O13" s="27"/>
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="32"/>
@@ -1608,14 +1652,15 @@
       <c r="G14" s="32"/>
       <c r="H14" s="10"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="35"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="34"/>
       <c r="N14" s="35"/>
-      <c r="O14" s="12"/>
-    </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="O14" s="35"/>
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="32"/>
@@ -1625,14 +1670,15 @@
       <c r="G15" s="32"/>
       <c r="H15" s="10"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="34"/>
       <c r="N15" s="35"/>
-      <c r="O15" s="12"/>
-    </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="O15" s="35"/>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:17" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="32"/>
@@ -1642,14 +1688,15 @@
       <c r="G16" s="32"/>
       <c r="H16" s="10"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="35"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="34"/>
       <c r="N16" s="35"/>
-      <c r="O16" s="12"/>
-    </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="O16" s="35"/>
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="32"/>
@@ -1659,14 +1706,15 @@
       <c r="G17" s="32"/>
       <c r="H17" s="10"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="34"/>
       <c r="N17" s="35"/>
-      <c r="O17" s="12"/>
-    </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="O17" s="35"/>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="32"/>
@@ -1676,14 +1724,15 @@
       <c r="G18" s="32"/>
       <c r="H18" s="10"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="35"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="34"/>
       <c r="N18" s="35"/>
-      <c r="O18" s="12"/>
-    </row>
-    <row r="19" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="O18" s="35"/>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="32"/>
@@ -1693,14 +1742,15 @@
       <c r="G19" s="32"/>
       <c r="H19" s="10"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="34"/>
       <c r="N19" s="35"/>
-      <c r="O19" s="12"/>
-    </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="35"/>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" spans="1:16" s="13" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="32"/>
@@ -1710,14 +1760,15 @@
       <c r="G20" s="32"/>
       <c r="H20" s="10"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="34"/>
       <c r="N20" s="35"/>
-      <c r="O20" s="12"/>
-    </row>
-    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="O20" s="35"/>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="28"/>
@@ -1727,13 +1778,14 @@
       <c r="G21" s="23"/>
       <c r="H21" s="10"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J21" s="25"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="28"/>
@@ -1743,13 +1795,14 @@
       <c r="G22" s="23"/>
       <c r="H22" s="10"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="14"/>
-    </row>
-    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J22" s="25"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="14"/>
+    </row>
+    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="28"/>
@@ -1759,13 +1812,14 @@
       <c r="G23" s="23"/>
       <c r="H23" s="10"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J23" s="25"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="28"/>
@@ -1775,13 +1829,14 @@
       <c r="G24" s="23"/>
       <c r="H24" s="10"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J24" s="25"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="28"/>
@@ -1791,13 +1846,14 @@
       <c r="G25" s="23"/>
       <c r="H25" s="10"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J25" s="25"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="28"/>
@@ -1807,13 +1863,14 @@
       <c r="G26" s="23"/>
       <c r="H26" s="10"/>
       <c r="I26" s="25"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="1:15" ht="167" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="25"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" ht="167" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="28"/>
@@ -1823,13 +1880,14 @@
       <c r="G27" s="23"/>
       <c r="H27" s="10"/>
       <c r="I27" s="25"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="14"/>
-    </row>
-    <row r="28" spans="1:15" ht="207.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="25"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="14"/>
+    </row>
+    <row r="28" spans="1:16" ht="207.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="28"/>
@@ -1839,13 +1897,14 @@
       <c r="G28" s="23"/>
       <c r="H28" s="10"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="14"/>
-    </row>
-    <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J28" s="25"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="14"/>
+    </row>
+    <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="28"/>
@@ -1855,13 +1914,14 @@
       <c r="G29" s="23"/>
       <c r="H29" s="10"/>
       <c r="I29" s="25"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="14"/>
-    </row>
-    <row r="30" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J29" s="25"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="14"/>
+    </row>
+    <row r="30" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="28"/>
@@ -1871,14 +1931,15 @@
       <c r="G30" s="23"/>
       <c r="H30" s="10"/>
       <c r="I30" s="25"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="12"/>
-    </row>
-    <row r="31" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J30" s="25"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="12"/>
+    </row>
+    <row r="31" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="28"/>
@@ -1888,14 +1949,15 @@
       <c r="G31" s="23"/>
       <c r="H31" s="10"/>
       <c r="I31" s="25"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="12"/>
-    </row>
-    <row r="32" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J31" s="25"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="28"/>
@@ -1905,14 +1967,15 @@
       <c r="G32" s="23"/>
       <c r="H32" s="10"/>
       <c r="I32" s="25"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="12"/>
-    </row>
-    <row r="33" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J32" s="25"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="12"/>
+    </row>
+    <row r="33" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="28"/>
@@ -1922,14 +1985,15 @@
       <c r="G33" s="23"/>
       <c r="H33" s="10"/>
       <c r="I33" s="25"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="12"/>
-    </row>
-    <row r="34" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J33" s="25"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="12"/>
+    </row>
+    <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="28"/>
@@ -1939,13 +2003,14 @@
       <c r="G34" s="23"/>
       <c r="H34" s="10"/>
       <c r="I34" s="25"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J34" s="25"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="28"/>
@@ -1955,13 +2020,14 @@
       <c r="G35" s="23"/>
       <c r="H35" s="10"/>
       <c r="I35" s="25"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J35" s="25"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="28"/>
@@ -1971,13 +2037,14 @@
       <c r="G36" s="23"/>
       <c r="H36" s="10"/>
       <c r="I36" s="25"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="1:15" ht="114.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="25"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" ht="114.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="32"/>
@@ -1987,13 +2054,14 @@
       <c r="G37" s="32"/>
       <c r="H37" s="10"/>
       <c r="I37" s="25"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="9"/>
-    </row>
-    <row r="38" spans="1:15" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="25"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="32"/>
@@ -2003,13 +2071,14 @@
       <c r="G38" s="32"/>
       <c r="H38" s="10"/>
       <c r="I38" s="25"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="1:15" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J38" s="25"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="43"/>
@@ -2019,13 +2088,14 @@
       <c r="G39" s="23"/>
       <c r="H39" s="10"/>
       <c r="I39" s="25"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="9"/>
-    </row>
-    <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J39" s="25"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="28"/>
@@ -2035,13 +2105,14 @@
       <c r="G40" s="23"/>
       <c r="H40" s="10"/>
       <c r="I40" s="25"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="9"/>
-    </row>
-    <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J40" s="25"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="32"/>
@@ -2051,13 +2122,14 @@
       <c r="G41" s="32"/>
       <c r="H41" s="10"/>
       <c r="I41" s="25"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="9"/>
-    </row>
-    <row r="42" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J41" s="25"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="32"/>
@@ -2067,13 +2139,14 @@
       <c r="G42" s="32"/>
       <c r="H42" s="10"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="9"/>
-    </row>
-    <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J42" s="25"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="32"/>
@@ -2083,13 +2156,14 @@
       <c r="G43" s="32"/>
       <c r="H43" s="10"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="1:15" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="25"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="32"/>
@@ -2099,13 +2173,14 @@
       <c r="G44" s="32"/>
       <c r="H44" s="10"/>
       <c r="I44" s="25"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J44" s="25"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="28"/>
@@ -2115,13 +2190,14 @@
       <c r="G45" s="23"/>
       <c r="H45" s="10"/>
       <c r="I45" s="25"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="9"/>
-    </row>
-    <row r="46" spans="1:15" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J45" s="25"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="9"/>
+    </row>
+    <row r="46" spans="1:16" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="28"/>
@@ -2131,13 +2207,14 @@
       <c r="G46" s="23"/>
       <c r="H46" s="10"/>
       <c r="I46" s="25"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="9"/>
-    </row>
-    <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J46" s="25"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="9"/>
+    </row>
+    <row r="47" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="28"/>
@@ -2147,13 +2224,14 @@
       <c r="G47" s="23"/>
       <c r="H47" s="10"/>
       <c r="I47" s="25"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="9"/>
-    </row>
-    <row r="48" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J47" s="25"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="28"/>
@@ -2163,13 +2241,14 @@
       <c r="G48" s="23"/>
       <c r="H48" s="10"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="9"/>
-    </row>
-    <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J48" s="25"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="28"/>
@@ -2179,13 +2258,14 @@
       <c r="G49" s="23"/>
       <c r="H49" s="10"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="9"/>
-    </row>
-    <row r="50" spans="1:15" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J49" s="25"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="9"/>
+    </row>
+    <row r="50" spans="1:16" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="28"/>
@@ -2195,13 +2275,14 @@
       <c r="G50" s="23"/>
       <c r="H50" s="10"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="9"/>
-    </row>
-    <row r="51" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J50" s="25"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="9"/>
+    </row>
+    <row r="51" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="28"/>
@@ -2211,13 +2292,14 @@
       <c r="G51" s="23"/>
       <c r="H51" s="10"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="9"/>
-    </row>
-    <row r="52" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J51" s="25"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="9"/>
+    </row>
+    <row r="52" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="28"/>
@@ -2227,14 +2309,15 @@
       <c r="G52" s="23"/>
       <c r="H52" s="10"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="12"/>
-    </row>
-    <row r="53" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J52" s="25"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="12"/>
+    </row>
+    <row r="53" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="28"/>
@@ -2244,14 +2327,15 @@
       <c r="G53" s="23"/>
       <c r="H53" s="10"/>
       <c r="I53" s="25"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="12"/>
-    </row>
-    <row r="54" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J53" s="25"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="12"/>
+    </row>
+    <row r="54" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="28"/>
@@ -2261,14 +2345,15 @@
       <c r="G54" s="23"/>
       <c r="H54" s="10"/>
       <c r="I54" s="25"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="12"/>
-    </row>
-    <row r="55" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J54" s="25"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="12"/>
+    </row>
+    <row r="55" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="28"/>
@@ -2278,14 +2363,15 @@
       <c r="G55" s="23"/>
       <c r="H55" s="10"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="12"/>
-    </row>
-    <row r="56" spans="1:15" s="13" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J55" s="25"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="12"/>
+    </row>
+    <row r="56" spans="1:16" s="13" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="28"/>
@@ -2295,14 +2381,15 @@
       <c r="G56" s="23"/>
       <c r="H56" s="10"/>
       <c r="I56" s="25"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="12"/>
-    </row>
-    <row r="57" spans="1:15" s="13" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J56" s="25"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="12"/>
+    </row>
+    <row r="57" spans="1:16" s="13" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="28"/>
@@ -2312,14 +2399,15 @@
       <c r="G57" s="23"/>
       <c r="H57" s="10"/>
       <c r="I57" s="25"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="12"/>
-    </row>
-    <row r="58" spans="1:15" s="13" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J57" s="25"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="12"/>
+    </row>
+    <row r="58" spans="1:16" s="13" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="28"/>
@@ -2329,14 +2417,15 @@
       <c r="G58" s="23"/>
       <c r="H58" s="10"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="12"/>
-    </row>
-    <row r="59" spans="1:15" s="13" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J58" s="25"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="12"/>
+    </row>
+    <row r="59" spans="1:16" s="13" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="32"/>
@@ -2346,14 +2435,15 @@
       <c r="G59" s="32"/>
       <c r="H59" s="10"/>
       <c r="I59" s="25"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="12"/>
-    </row>
-    <row r="60" spans="1:15" s="13" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J59" s="25"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="12"/>
+    </row>
+    <row r="60" spans="1:16" s="13" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="32"/>
@@ -2363,14 +2453,15 @@
       <c r="G60" s="32"/>
       <c r="H60" s="10"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="12"/>
-    </row>
-    <row r="61" spans="1:15" s="13" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J60" s="25"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="12"/>
+    </row>
+    <row r="61" spans="1:16" s="13" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="32"/>
@@ -2380,14 +2471,15 @@
       <c r="G61" s="23"/>
       <c r="H61" s="10"/>
       <c r="I61" s="25"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="12"/>
-    </row>
-    <row r="62" spans="1:15" s="13" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J61" s="25"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="12"/>
+    </row>
+    <row r="62" spans="1:16" s="13" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="32"/>
@@ -2397,14 +2489,15 @@
       <c r="G62" s="23"/>
       <c r="H62" s="10"/>
       <c r="I62" s="25"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="12"/>
-    </row>
-    <row r="63" spans="1:15" s="13" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J62" s="25"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="12"/>
+    </row>
+    <row r="63" spans="1:16" s="13" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="32"/>
@@ -2414,14 +2507,15 @@
       <c r="G63" s="23"/>
       <c r="H63" s="10"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="12"/>
-    </row>
-    <row r="64" spans="1:15" s="13" customFormat="1" ht="191.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J63" s="25"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="12"/>
+    </row>
+    <row r="64" spans="1:16" s="13" customFormat="1" ht="191.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="32"/>
@@ -2431,14 +2525,15 @@
       <c r="G64" s="23"/>
       <c r="H64" s="10"/>
       <c r="I64" s="25"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="12"/>
-    </row>
-    <row r="65" spans="1:15" s="13" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J64" s="25"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="12"/>
+    </row>
+    <row r="65" spans="1:16" s="13" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="32"/>
@@ -2448,14 +2543,15 @@
       <c r="G65" s="44"/>
       <c r="H65" s="10"/>
       <c r="I65" s="25"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="45"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="12"/>
-    </row>
-    <row r="66" spans="1:15" s="13" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J65" s="25"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="12"/>
+    </row>
+    <row r="66" spans="1:16" s="13" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="32"/>
@@ -2465,14 +2561,15 @@
       <c r="G66" s="44"/>
       <c r="H66" s="10"/>
       <c r="I66" s="25"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="45"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="45"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="12"/>
-    </row>
-    <row r="67" spans="1:15" s="13" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J66" s="25"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="12"/>
+    </row>
+    <row r="67" spans="1:16" s="13" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="32"/>
@@ -2482,14 +2579,15 @@
       <c r="G67" s="44"/>
       <c r="H67" s="10"/>
       <c r="I67" s="25"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="45"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="12"/>
-    </row>
-    <row r="68" spans="1:15" s="13" customFormat="1" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J67" s="25"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="45"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="45"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="12"/>
+    </row>
+    <row r="68" spans="1:16" s="13" customFormat="1" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="32"/>
@@ -2499,14 +2597,15 @@
       <c r="G68" s="44"/>
       <c r="H68" s="10"/>
       <c r="I68" s="25"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="45"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="45"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="12"/>
-    </row>
-    <row r="69" spans="1:15" s="13" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J68" s="25"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="45"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="12"/>
+    </row>
+    <row r="69" spans="1:16" s="13" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="32"/>
@@ -2516,14 +2615,15 @@
       <c r="G69" s="44"/>
       <c r="H69" s="10"/>
       <c r="I69" s="25"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="45"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="12"/>
-    </row>
-    <row r="70" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J69" s="25"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="45"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="45"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="12"/>
+    </row>
+    <row r="70" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="32"/>
@@ -2533,14 +2633,15 @@
       <c r="G70" s="44"/>
       <c r="H70" s="10"/>
       <c r="I70" s="25"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="45"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="45"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="12"/>
-    </row>
-    <row r="71" spans="1:15" s="13" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J70" s="25"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="45"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="45"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="12"/>
+    </row>
+    <row r="71" spans="1:16" s="13" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="32"/>
@@ -2550,14 +2651,15 @@
       <c r="G71" s="44"/>
       <c r="H71" s="10"/>
       <c r="I71" s="25"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="45"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="45"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="12"/>
-    </row>
-    <row r="72" spans="1:15" s="13" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J71" s="25"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="45"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="45"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="12"/>
+    </row>
+    <row r="72" spans="1:16" s="13" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="32"/>
@@ -2567,14 +2669,15 @@
       <c r="G72" s="44"/>
       <c r="H72" s="10"/>
       <c r="I72" s="25"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="12"/>
-    </row>
-    <row r="73" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J72" s="25"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="45"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="12"/>
+    </row>
+    <row r="73" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="32"/>
@@ -2584,14 +2687,15 @@
       <c r="G73" s="44"/>
       <c r="H73" s="10"/>
       <c r="I73" s="25"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="45"/>
-      <c r="L73" s="44"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="12"/>
-    </row>
-    <row r="74" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J73" s="25"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="45"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="12"/>
+    </row>
+    <row r="74" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="32"/>
@@ -2601,14 +2705,15 @@
       <c r="G74" s="44"/>
       <c r="H74" s="10"/>
       <c r="I74" s="25"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="45"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="12"/>
-    </row>
-    <row r="75" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J74" s="25"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="12"/>
+    </row>
+    <row r="75" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="32"/>
@@ -2618,14 +2723,15 @@
       <c r="G75" s="44"/>
       <c r="H75" s="10"/>
       <c r="I75" s="25"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="45"/>
-      <c r="L75" s="44"/>
-      <c r="M75" s="45"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="12"/>
-    </row>
-    <row r="76" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J75" s="25"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="45"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="45"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="12"/>
+    </row>
+    <row r="76" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="32"/>
@@ -2635,14 +2741,15 @@
       <c r="G76" s="44"/>
       <c r="H76" s="10"/>
       <c r="I76" s="25"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="44"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="12"/>
-    </row>
-    <row r="77" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J76" s="25"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="45"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="12"/>
+    </row>
+    <row r="77" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="32"/>
@@ -2652,14 +2759,15 @@
       <c r="G77" s="23"/>
       <c r="H77" s="10"/>
       <c r="I77" s="25"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="24"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="12"/>
-    </row>
-    <row r="78" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J77" s="25"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="12"/>
+    </row>
+    <row r="78" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="28"/>
@@ -2669,14 +2777,15 @@
       <c r="G78" s="23"/>
       <c r="H78" s="10"/>
       <c r="I78" s="25"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="12"/>
-    </row>
-    <row r="79" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J78" s="25"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="12"/>
+    </row>
+    <row r="79" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="28"/>
@@ -2686,14 +2795,15 @@
       <c r="G79" s="23"/>
       <c r="H79" s="10"/>
       <c r="I79" s="25"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="31"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="12"/>
-    </row>
-    <row r="80" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J79" s="25"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="27"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="31"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="12"/>
+    </row>
+    <row r="80" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="28"/>
@@ -2703,14 +2813,15 @@
       <c r="G80" s="23"/>
       <c r="H80" s="10"/>
       <c r="I80" s="25"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="31"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="12"/>
-    </row>
-    <row r="81" spans="1:15" s="13" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J80" s="25"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="31"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="12"/>
+    </row>
+    <row r="81" spans="1:16" s="13" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="28"/>
@@ -2720,14 +2831,15 @@
       <c r="G81" s="23"/>
       <c r="H81" s="10"/>
       <c r="I81" s="25"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="12"/>
-    </row>
-    <row r="82" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J81" s="25"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="12"/>
+    </row>
+    <row r="82" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="28"/>
@@ -2737,14 +2849,15 @@
       <c r="G82" s="23"/>
       <c r="H82" s="10"/>
       <c r="I82" s="25"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="31"/>
-      <c r="N82" s="14"/>
-      <c r="O82" s="12"/>
-    </row>
-    <row r="83" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J82" s="25"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="31"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="12"/>
+    </row>
+    <row r="83" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="28"/>
@@ -2754,14 +2867,15 @@
       <c r="G83" s="23"/>
       <c r="H83" s="10"/>
       <c r="I83" s="25"/>
-      <c r="J83" s="42"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="12"/>
-    </row>
-    <row r="84" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J83" s="25"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="12"/>
+    </row>
+    <row r="84" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="28"/>
@@ -2771,13 +2885,14 @@
       <c r="G84" s="23"/>
       <c r="H84" s="10"/>
       <c r="I84" s="25"/>
-      <c r="J84" s="42"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="11"/>
-    </row>
-    <row r="85" spans="1:15" ht="158.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J84" s="25"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="11"/>
+    </row>
+    <row r="85" spans="1:16" ht="158.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="28"/>
@@ -2787,13 +2902,14 @@
       <c r="G85" s="23"/>
       <c r="H85" s="10"/>
       <c r="I85" s="25"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="27"/>
-      <c r="N85" s="11"/>
-    </row>
-    <row r="86" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="J85" s="25"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="11"/>
+    </row>
+    <row r="86" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="28"/>
@@ -2803,13 +2919,14 @@
       <c r="G86" s="23"/>
       <c r="H86" s="10"/>
       <c r="I86" s="25"/>
-      <c r="J86" s="42"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="31"/>
-      <c r="N86" s="11"/>
-    </row>
-    <row r="87" spans="1:15" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J86" s="25"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="31"/>
+      <c r="O86" s="11"/>
+    </row>
+    <row r="87" spans="1:16" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="28"/>
@@ -2819,13 +2936,14 @@
       <c r="G87" s="23"/>
       <c r="H87" s="10"/>
       <c r="I87" s="25"/>
-      <c r="J87" s="42"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="31"/>
-      <c r="N87" s="11"/>
-    </row>
-    <row r="88" spans="1:15" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J87" s="25"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="31"/>
+      <c r="O87" s="11"/>
+    </row>
+    <row r="88" spans="1:16" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="28"/>
@@ -2835,13 +2953,14 @@
       <c r="G88" s="23"/>
       <c r="H88" s="10"/>
       <c r="I88" s="25"/>
-      <c r="J88" s="42"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="44"/>
-      <c r="M88" s="45"/>
-      <c r="N88" s="9"/>
-    </row>
-    <row r="89" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J88" s="25"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="45"/>
+      <c r="O88" s="9"/>
+    </row>
+    <row r="89" spans="1:16" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="28"/>
@@ -2851,13 +2970,14 @@
       <c r="G89" s="23"/>
       <c r="H89" s="10"/>
       <c r="I89" s="25"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="35"/>
-      <c r="N89" s="9"/>
-    </row>
-    <row r="90" spans="1:15" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J89" s="25"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="35"/>
+      <c r="O89" s="9"/>
+    </row>
+    <row r="90" spans="1:16" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="28"/>
@@ -2867,13 +2987,14 @@
       <c r="G90" s="23"/>
       <c r="H90" s="10"/>
       <c r="I90" s="25"/>
-      <c r="J90" s="42"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="35"/>
-      <c r="N90" s="9"/>
-    </row>
-    <row r="91" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J90" s="25"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="9"/>
+    </row>
+    <row r="91" spans="1:16" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="32"/>
@@ -2883,13 +3004,14 @@
       <c r="G91" s="32"/>
       <c r="H91" s="10"/>
       <c r="I91" s="25"/>
-      <c r="J91" s="42"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="34"/>
-      <c r="M91" s="35"/>
-      <c r="N91" s="9"/>
-    </row>
-    <row r="92" spans="1:15" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J91" s="25"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="34"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="9"/>
+    </row>
+    <row r="92" spans="1:16" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="32"/>
@@ -2899,13 +3021,14 @@
       <c r="G92" s="32"/>
       <c r="H92" s="10"/>
       <c r="I92" s="25"/>
-      <c r="J92" s="42"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="34"/>
-      <c r="M92" s="35"/>
-      <c r="N92" s="9"/>
-    </row>
-    <row r="93" spans="1:15" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J92" s="25"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="34"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="9"/>
+    </row>
+    <row r="93" spans="1:16" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="32"/>
@@ -2915,13 +3038,14 @@
       <c r="G93" s="23"/>
       <c r="H93" s="10"/>
       <c r="I93" s="25"/>
-      <c r="J93" s="42"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="9"/>
-    </row>
-    <row r="94" spans="1:15" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J93" s="25"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="27"/>
+      <c r="O93" s="9"/>
+    </row>
+    <row r="94" spans="1:16" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="32"/>
@@ -2931,13 +3055,14 @@
       <c r="G94" s="23"/>
       <c r="H94" s="10"/>
       <c r="I94" s="25"/>
-      <c r="J94" s="42"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="27"/>
-      <c r="N94" s="9"/>
-    </row>
-    <row r="95" spans="1:15" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J94" s="25"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="27"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="27"/>
+      <c r="O94" s="9"/>
+    </row>
+    <row r="95" spans="1:16" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="32"/>
@@ -2947,13 +3072,14 @@
       <c r="G95" s="23"/>
       <c r="H95" s="10"/>
       <c r="I95" s="25"/>
-      <c r="J95" s="42"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="27"/>
-      <c r="N95" s="9"/>
-    </row>
-    <row r="96" spans="1:15" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J95" s="25"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="27"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="27"/>
+      <c r="O95" s="9"/>
+    </row>
+    <row r="96" spans="1:16" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="32"/>
@@ -2963,13 +3089,14 @@
       <c r="G96" s="23"/>
       <c r="H96" s="10"/>
       <c r="I96" s="25"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="27"/>
-      <c r="N96" s="9"/>
-    </row>
-    <row r="97" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J96" s="25"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="27"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="27"/>
+      <c r="O96" s="9"/>
+    </row>
+    <row r="97" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="32"/>
@@ -2979,13 +3106,14 @@
       <c r="G97" s="23"/>
       <c r="H97" s="10"/>
       <c r="I97" s="25"/>
-      <c r="J97" s="42"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="27"/>
-      <c r="N97" s="9"/>
-    </row>
-    <row r="98" spans="1:14" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J97" s="25"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="27"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="27"/>
+      <c r="O97" s="9"/>
+    </row>
+    <row r="98" spans="1:15" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="32"/>
@@ -2995,13 +3123,14 @@
       <c r="G98" s="23"/>
       <c r="H98" s="10"/>
       <c r="I98" s="25"/>
-      <c r="J98" s="42"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="27"/>
-      <c r="N98" s="9"/>
-    </row>
-    <row r="99" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J98" s="25"/>
+      <c r="K98" s="42"/>
+      <c r="L98" s="27"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="27"/>
+      <c r="O98" s="9"/>
+    </row>
+    <row r="99" spans="1:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="32"/>
@@ -3011,13 +3140,14 @@
       <c r="G99" s="23"/>
       <c r="H99" s="10"/>
       <c r="I99" s="25"/>
-      <c r="J99" s="42"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="27"/>
-      <c r="N99" s="9"/>
-    </row>
-    <row r="100" spans="1:14" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J99" s="25"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="27"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="27"/>
+      <c r="O99" s="9"/>
+    </row>
+    <row r="100" spans="1:15" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="32"/>
@@ -3027,13 +3157,14 @@
       <c r="G100" s="23"/>
       <c r="H100" s="10"/>
       <c r="I100" s="25"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="27"/>
-      <c r="N100" s="9"/>
-    </row>
-    <row r="101" spans="1:14" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J100" s="25"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="27"/>
+      <c r="O100" s="9"/>
+    </row>
+    <row r="101" spans="1:15" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="32"/>
@@ -3043,13 +3174,14 @@
       <c r="G101" s="23"/>
       <c r="H101" s="10"/>
       <c r="I101" s="25"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="27"/>
-      <c r="N101" s="9"/>
-    </row>
-    <row r="102" spans="1:14" ht="95.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J101" s="25"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="27"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="27"/>
+      <c r="O101" s="9"/>
+    </row>
+    <row r="102" spans="1:15" ht="95.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="32"/>
@@ -3059,13 +3191,14 @@
       <c r="G102" s="23"/>
       <c r="H102" s="10"/>
       <c r="I102" s="25"/>
-      <c r="J102" s="42"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="27"/>
-      <c r="N102" s="9"/>
-    </row>
-    <row r="103" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J102" s="25"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="27"/>
+      <c r="O102" s="9"/>
+    </row>
+    <row r="103" spans="1:15" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="32"/>
@@ -3075,13 +3208,14 @@
       <c r="G103" s="23"/>
       <c r="H103" s="10"/>
       <c r="I103" s="25"/>
-      <c r="J103" s="42"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="24"/>
-      <c r="M103" s="27"/>
-      <c r="N103" s="9"/>
-    </row>
-    <row r="104" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J103" s="25"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="27"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="27"/>
+      <c r="O103" s="9"/>
+    </row>
+    <row r="104" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="32"/>
@@ -3091,13 +3225,14 @@
       <c r="G104" s="23"/>
       <c r="H104" s="10"/>
       <c r="I104" s="25"/>
-      <c r="J104" s="42"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="24"/>
-      <c r="M104" s="27"/>
-      <c r="N104" s="9"/>
-    </row>
-    <row r="105" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J104" s="25"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="27"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="27"/>
+      <c r="O104" s="9"/>
+    </row>
+    <row r="105" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="32"/>
@@ -3107,13 +3242,14 @@
       <c r="G105" s="23"/>
       <c r="H105" s="10"/>
       <c r="I105" s="25"/>
-      <c r="J105" s="42"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="24"/>
-      <c r="M105" s="27"/>
-      <c r="N105" s="9"/>
-    </row>
-    <row r="106" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J105" s="25"/>
+      <c r="K105" s="42"/>
+      <c r="L105" s="27"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="27"/>
+      <c r="O105" s="9"/>
+    </row>
+    <row r="106" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="32"/>
@@ -3123,13 +3259,14 @@
       <c r="G106" s="23"/>
       <c r="H106" s="10"/>
       <c r="I106" s="25"/>
-      <c r="J106" s="42"/>
-      <c r="K106" s="27"/>
-      <c r="L106" s="24"/>
-      <c r="M106" s="27"/>
-      <c r="N106" s="9"/>
-    </row>
-    <row r="107" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J106" s="25"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="24"/>
+      <c r="N106" s="27"/>
+      <c r="O106" s="9"/>
+    </row>
+    <row r="107" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="32"/>
@@ -3139,13 +3276,14 @@
       <c r="G107" s="23"/>
       <c r="H107" s="10"/>
       <c r="I107" s="25"/>
-      <c r="J107" s="42"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="27"/>
-      <c r="N107" s="9"/>
-    </row>
-    <row r="108" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J107" s="25"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="27"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="27"/>
+      <c r="O107" s="9"/>
+    </row>
+    <row r="108" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="32"/>
@@ -3155,13 +3293,14 @@
       <c r="G108" s="23"/>
       <c r="H108" s="10"/>
       <c r="I108" s="25"/>
-      <c r="J108" s="42"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="24"/>
-      <c r="M108" s="27"/>
-      <c r="N108" s="9"/>
-    </row>
-    <row r="109" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J108" s="25"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="27"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="27"/>
+      <c r="O108" s="9"/>
+    </row>
+    <row r="109" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="32"/>
@@ -3171,13 +3310,14 @@
       <c r="G109" s="23"/>
       <c r="H109" s="10"/>
       <c r="I109" s="25"/>
-      <c r="J109" s="42"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="24"/>
-      <c r="M109" s="27"/>
-      <c r="N109" s="9"/>
-    </row>
-    <row r="110" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J109" s="25"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="27"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="27"/>
+      <c r="O109" s="9"/>
+    </row>
+    <row r="110" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="32"/>
@@ -3187,13 +3327,14 @@
       <c r="G110" s="23"/>
       <c r="H110" s="10"/>
       <c r="I110" s="25"/>
-      <c r="J110" s="42"/>
-      <c r="K110" s="27"/>
-      <c r="L110" s="24"/>
-      <c r="M110" s="27"/>
-      <c r="N110" s="9"/>
-    </row>
-    <row r="111" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J110" s="25"/>
+      <c r="K110" s="42"/>
+      <c r="L110" s="27"/>
+      <c r="M110" s="24"/>
+      <c r="N110" s="27"/>
+      <c r="O110" s="9"/>
+    </row>
+    <row r="111" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="32"/>
@@ -3203,13 +3344,14 @@
       <c r="G111" s="23"/>
       <c r="H111" s="10"/>
       <c r="I111" s="25"/>
-      <c r="J111" s="42"/>
-      <c r="K111" s="27"/>
-      <c r="L111" s="24"/>
-      <c r="M111" s="27"/>
-      <c r="N111" s="9"/>
-    </row>
-    <row r="112" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J111" s="25"/>
+      <c r="K111" s="42"/>
+      <c r="L111" s="27"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="27"/>
+      <c r="O111" s="9"/>
+    </row>
+    <row r="112" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="32"/>
@@ -3219,13 +3361,14 @@
       <c r="G112" s="23"/>
       <c r="H112" s="10"/>
       <c r="I112" s="25"/>
-      <c r="J112" s="42"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="24"/>
-      <c r="M112" s="27"/>
-      <c r="N112" s="9"/>
-    </row>
-    <row r="113" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J112" s="25"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="27"/>
+      <c r="M112" s="24"/>
+      <c r="N112" s="27"/>
+      <c r="O112" s="9"/>
+    </row>
+    <row r="113" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="32"/>
@@ -3235,13 +3378,14 @@
       <c r="G113" s="23"/>
       <c r="H113" s="10"/>
       <c r="I113" s="25"/>
-      <c r="J113" s="42"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="24"/>
-      <c r="M113" s="27"/>
-      <c r="N113" s="9"/>
-    </row>
-    <row r="114" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J113" s="25"/>
+      <c r="K113" s="42"/>
+      <c r="L113" s="27"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="27"/>
+      <c r="O113" s="9"/>
+    </row>
+    <row r="114" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="32"/>
@@ -3251,13 +3395,14 @@
       <c r="G114" s="23"/>
       <c r="H114" s="10"/>
       <c r="I114" s="25"/>
-      <c r="J114" s="42"/>
-      <c r="K114" s="27"/>
-      <c r="L114" s="24"/>
-      <c r="M114" s="27"/>
-      <c r="N114" s="9"/>
-    </row>
-    <row r="115" spans="1:14" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J114" s="25"/>
+      <c r="K114" s="42"/>
+      <c r="L114" s="27"/>
+      <c r="M114" s="24"/>
+      <c r="N114" s="27"/>
+      <c r="O114" s="9"/>
+    </row>
+    <row r="115" spans="1:15" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="32"/>
@@ -3267,13 +3412,14 @@
       <c r="G115" s="23"/>
       <c r="H115" s="10"/>
       <c r="I115" s="25"/>
-      <c r="J115" s="42"/>
-      <c r="K115" s="27"/>
-      <c r="L115" s="24"/>
-      <c r="M115" s="27"/>
-      <c r="N115" s="9"/>
-    </row>
-    <row r="116" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J115" s="25"/>
+      <c r="K115" s="42"/>
+      <c r="L115" s="27"/>
+      <c r="M115" s="24"/>
+      <c r="N115" s="27"/>
+      <c r="O115" s="9"/>
+    </row>
+    <row r="116" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="32"/>
@@ -3283,13 +3429,14 @@
       <c r="G116" s="23"/>
       <c r="H116" s="10"/>
       <c r="I116" s="25"/>
-      <c r="J116" s="42"/>
-      <c r="K116" s="27"/>
-      <c r="L116" s="24"/>
-      <c r="M116" s="27"/>
-      <c r="N116" s="9"/>
-    </row>
-    <row r="117" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J116" s="25"/>
+      <c r="K116" s="42"/>
+      <c r="L116" s="27"/>
+      <c r="M116" s="24"/>
+      <c r="N116" s="27"/>
+      <c r="O116" s="9"/>
+    </row>
+    <row r="117" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="32"/>
@@ -3299,13 +3446,14 @@
       <c r="G117" s="44"/>
       <c r="H117" s="10"/>
       <c r="I117" s="25"/>
-      <c r="J117" s="42"/>
-      <c r="K117" s="27"/>
-      <c r="L117" s="24"/>
-      <c r="M117" s="27"/>
-      <c r="N117" s="11"/>
-    </row>
-    <row r="118" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J117" s="25"/>
+      <c r="K117" s="42"/>
+      <c r="L117" s="27"/>
+      <c r="M117" s="24"/>
+      <c r="N117" s="27"/>
+      <c r="O117" s="11"/>
+    </row>
+    <row r="118" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="32"/>
@@ -3315,13 +3463,14 @@
       <c r="G118" s="44"/>
       <c r="H118" s="10"/>
       <c r="I118" s="25"/>
-      <c r="J118" s="42"/>
-      <c r="K118" s="27"/>
-      <c r="L118" s="24"/>
-      <c r="M118" s="27"/>
-      <c r="N118" s="11"/>
-    </row>
-    <row r="119" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J118" s="25"/>
+      <c r="K118" s="42"/>
+      <c r="L118" s="27"/>
+      <c r="M118" s="24"/>
+      <c r="N118" s="27"/>
+      <c r="O118" s="11"/>
+    </row>
+    <row r="119" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="32"/>
@@ -3331,13 +3480,14 @@
       <c r="G119" s="44"/>
       <c r="H119" s="10"/>
       <c r="I119" s="25"/>
-      <c r="J119" s="42"/>
-      <c r="K119" s="27"/>
-      <c r="L119" s="24"/>
-      <c r="M119" s="27"/>
-      <c r="N119" s="11"/>
-    </row>
-    <row r="120" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J119" s="25"/>
+      <c r="K119" s="42"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="24"/>
+      <c r="N119" s="27"/>
+      <c r="O119" s="11"/>
+    </row>
+    <row r="120" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="32"/>
@@ -3347,13 +3497,14 @@
       <c r="G120" s="44"/>
       <c r="H120" s="10"/>
       <c r="I120" s="25"/>
-      <c r="J120" s="42"/>
-      <c r="K120" s="31"/>
-      <c r="L120" s="24"/>
-      <c r="M120" s="27"/>
-      <c r="N120" s="11"/>
-    </row>
-    <row r="121" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J120" s="25"/>
+      <c r="K120" s="42"/>
+      <c r="L120" s="31"/>
+      <c r="M120" s="24"/>
+      <c r="N120" s="27"/>
+      <c r="O120" s="11"/>
+    </row>
+    <row r="121" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="32"/>
@@ -3363,13 +3514,14 @@
       <c r="G121" s="23"/>
       <c r="H121" s="10"/>
       <c r="I121" s="25"/>
-      <c r="J121" s="42"/>
-      <c r="K121" s="27"/>
-      <c r="L121" s="24"/>
-      <c r="M121" s="27"/>
-      <c r="N121" s="11"/>
-    </row>
-    <row r="122" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J121" s="25"/>
+      <c r="K121" s="42"/>
+      <c r="L121" s="27"/>
+      <c r="M121" s="24"/>
+      <c r="N121" s="27"/>
+      <c r="O121" s="11"/>
+    </row>
+    <row r="122" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="28"/>
@@ -3379,13 +3531,14 @@
       <c r="G122" s="23"/>
       <c r="H122" s="10"/>
       <c r="I122" s="25"/>
-      <c r="J122" s="42"/>
-      <c r="K122" s="27"/>
-      <c r="L122" s="24"/>
-      <c r="M122" s="35"/>
-      <c r="N122" s="11"/>
-    </row>
-    <row r="123" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J122" s="25"/>
+      <c r="K122" s="42"/>
+      <c r="L122" s="27"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="35"/>
+      <c r="O122" s="11"/>
+    </row>
+    <row r="123" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="32"/>
@@ -3395,13 +3548,14 @@
       <c r="G123" s="32"/>
       <c r="H123" s="10"/>
       <c r="I123" s="25"/>
-      <c r="J123" s="42"/>
-      <c r="K123" s="27"/>
-      <c r="L123" s="34"/>
-      <c r="M123" s="35"/>
-      <c r="N123" s="11"/>
-    </row>
-    <row r="124" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J123" s="25"/>
+      <c r="K123" s="42"/>
+      <c r="L123" s="27"/>
+      <c r="M123" s="34"/>
+      <c r="N123" s="35"/>
+      <c r="O123" s="11"/>
+    </row>
+    <row r="124" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="32"/>
@@ -3411,13 +3565,14 @@
       <c r="G124" s="32"/>
       <c r="H124" s="10"/>
       <c r="I124" s="25"/>
-      <c r="J124" s="42"/>
-      <c r="K124" s="27"/>
-      <c r="L124" s="34"/>
-      <c r="M124" s="35"/>
-      <c r="N124" s="11"/>
-    </row>
-    <row r="125" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J124" s="25"/>
+      <c r="K124" s="42"/>
+      <c r="L124" s="27"/>
+      <c r="M124" s="34"/>
+      <c r="N124" s="35"/>
+      <c r="O124" s="11"/>
+    </row>
+    <row r="125" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="32"/>
@@ -3427,13 +3582,14 @@
       <c r="G125" s="32"/>
       <c r="H125" s="10"/>
       <c r="I125" s="25"/>
-      <c r="J125" s="42"/>
-      <c r="K125" s="27"/>
-      <c r="L125" s="34"/>
-      <c r="M125" s="35"/>
-      <c r="N125" s="11"/>
-    </row>
-    <row r="126" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J125" s="25"/>
+      <c r="K125" s="42"/>
+      <c r="L125" s="27"/>
+      <c r="M125" s="34"/>
+      <c r="N125" s="35"/>
+      <c r="O125" s="11"/>
+    </row>
+    <row r="126" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="32"/>
@@ -3443,13 +3599,14 @@
       <c r="G126" s="32"/>
       <c r="H126" s="10"/>
       <c r="I126" s="25"/>
-      <c r="J126" s="42"/>
-      <c r="K126" s="27"/>
-      <c r="L126" s="34"/>
-      <c r="M126" s="35"/>
-      <c r="N126" s="11"/>
-    </row>
-    <row r="127" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J126" s="25"/>
+      <c r="K126" s="42"/>
+      <c r="L126" s="27"/>
+      <c r="M126" s="34"/>
+      <c r="N126" s="35"/>
+      <c r="O126" s="11"/>
+    </row>
+    <row r="127" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="32"/>
@@ -3459,13 +3616,14 @@
       <c r="G127" s="32"/>
       <c r="H127" s="10"/>
       <c r="I127" s="25"/>
-      <c r="J127" s="42"/>
-      <c r="K127" s="27"/>
-      <c r="L127" s="34"/>
-      <c r="M127" s="35"/>
-      <c r="N127" s="9"/>
-    </row>
-    <row r="128" spans="1:14" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J127" s="25"/>
+      <c r="K127" s="42"/>
+      <c r="L127" s="27"/>
+      <c r="M127" s="34"/>
+      <c r="N127" s="35"/>
+      <c r="O127" s="9"/>
+    </row>
+    <row r="128" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="32"/>
@@ -3475,13 +3633,14 @@
       <c r="G128" s="32"/>
       <c r="H128" s="10"/>
       <c r="I128" s="25"/>
-      <c r="J128" s="42"/>
-      <c r="K128" s="27"/>
-      <c r="L128" s="34"/>
-      <c r="M128" s="35"/>
-      <c r="N128" s="9"/>
-    </row>
-    <row r="129" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J128" s="25"/>
+      <c r="K128" s="42"/>
+      <c r="L128" s="27"/>
+      <c r="M128" s="34"/>
+      <c r="N128" s="35"/>
+      <c r="O128" s="9"/>
+    </row>
+    <row r="129" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="32"/>
@@ -3491,14 +3650,15 @@
       <c r="G129" s="32"/>
       <c r="H129" s="10"/>
       <c r="I129" s="25"/>
-      <c r="J129" s="42"/>
-      <c r="K129" s="27"/>
-      <c r="L129" s="34"/>
-      <c r="M129" s="35"/>
-      <c r="N129" s="11"/>
-      <c r="O129" s="12"/>
-    </row>
-    <row r="130" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J129" s="25"/>
+      <c r="K129" s="42"/>
+      <c r="L129" s="27"/>
+      <c r="M129" s="34"/>
+      <c r="N129" s="35"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="12"/>
+    </row>
+    <row r="130" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="32"/>
@@ -3508,14 +3668,15 @@
       <c r="G130" s="32"/>
       <c r="H130" s="10"/>
       <c r="I130" s="25"/>
-      <c r="J130" s="42"/>
-      <c r="K130" s="27"/>
-      <c r="L130" s="34"/>
-      <c r="M130" s="35"/>
-      <c r="N130" s="11"/>
-      <c r="O130" s="12"/>
-    </row>
-    <row r="131" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J130" s="25"/>
+      <c r="K130" s="42"/>
+      <c r="L130" s="27"/>
+      <c r="M130" s="34"/>
+      <c r="N130" s="35"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="12"/>
+    </row>
+    <row r="131" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="32"/>
@@ -3525,14 +3686,15 @@
       <c r="G131" s="32"/>
       <c r="H131" s="10"/>
       <c r="I131" s="25"/>
-      <c r="J131" s="42"/>
-      <c r="K131" s="27"/>
-      <c r="L131" s="34"/>
-      <c r="M131" s="35"/>
-      <c r="N131" s="11"/>
-      <c r="O131" s="12"/>
-    </row>
-    <row r="132" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J131" s="25"/>
+      <c r="K131" s="42"/>
+      <c r="L131" s="27"/>
+      <c r="M131" s="34"/>
+      <c r="N131" s="35"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="12"/>
+    </row>
+    <row r="132" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="28"/>
@@ -3542,14 +3704,15 @@
       <c r="G132" s="23"/>
       <c r="H132" s="10"/>
       <c r="I132" s="25"/>
-      <c r="J132" s="42"/>
-      <c r="K132" s="27"/>
-      <c r="L132" s="24"/>
-      <c r="M132" s="27"/>
-      <c r="N132" s="14"/>
-      <c r="O132" s="12"/>
-    </row>
-    <row r="133" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J132" s="25"/>
+      <c r="K132" s="42"/>
+      <c r="L132" s="27"/>
+      <c r="M132" s="24"/>
+      <c r="N132" s="27"/>
+      <c r="O132" s="14"/>
+      <c r="P132" s="12"/>
+    </row>
+    <row r="133" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="28"/>
@@ -3559,14 +3722,15 @@
       <c r="G133" s="23"/>
       <c r="H133" s="10"/>
       <c r="I133" s="25"/>
-      <c r="J133" s="42"/>
-      <c r="K133" s="27"/>
-      <c r="L133" s="24"/>
-      <c r="M133" s="27"/>
-      <c r="N133" s="9"/>
-      <c r="O133" s="12"/>
-    </row>
-    <row r="134" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J133" s="25"/>
+      <c r="K133" s="42"/>
+      <c r="L133" s="27"/>
+      <c r="M133" s="24"/>
+      <c r="N133" s="27"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="12"/>
+    </row>
+    <row r="134" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="28"/>
@@ -3576,14 +3740,15 @@
       <c r="G134" s="23"/>
       <c r="H134" s="10"/>
       <c r="I134" s="25"/>
-      <c r="J134" s="42"/>
-      <c r="K134" s="27"/>
-      <c r="L134" s="24"/>
-      <c r="M134" s="35"/>
-      <c r="N134" s="9"/>
-      <c r="O134" s="12"/>
-    </row>
-    <row r="135" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J134" s="25"/>
+      <c r="K134" s="42"/>
+      <c r="L134" s="27"/>
+      <c r="M134" s="24"/>
+      <c r="N134" s="35"/>
+      <c r="O134" s="9"/>
+      <c r="P134" s="12"/>
+    </row>
+    <row r="135" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="28"/>
@@ -3593,14 +3758,15 @@
       <c r="G135" s="23"/>
       <c r="H135" s="10"/>
       <c r="I135" s="25"/>
-      <c r="J135" s="42"/>
-      <c r="K135" s="27"/>
-      <c r="L135" s="24"/>
-      <c r="M135" s="35"/>
-      <c r="N135" s="9"/>
-      <c r="O135" s="12"/>
-    </row>
-    <row r="136" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J135" s="25"/>
+      <c r="K135" s="42"/>
+      <c r="L135" s="27"/>
+      <c r="M135" s="24"/>
+      <c r="N135" s="35"/>
+      <c r="O135" s="9"/>
+      <c r="P135" s="12"/>
+    </row>
+    <row r="136" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="32"/>
@@ -3610,14 +3776,15 @@
       <c r="G136" s="32"/>
       <c r="H136" s="10"/>
       <c r="I136" s="25"/>
-      <c r="J136" s="42"/>
-      <c r="K136" s="27"/>
-      <c r="L136" s="34"/>
-      <c r="M136" s="35"/>
-      <c r="N136" s="9"/>
-      <c r="O136" s="12"/>
-    </row>
-    <row r="137" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J136" s="25"/>
+      <c r="K136" s="42"/>
+      <c r="L136" s="27"/>
+      <c r="M136" s="34"/>
+      <c r="N136" s="35"/>
+      <c r="O136" s="9"/>
+      <c r="P136" s="12"/>
+    </row>
+    <row r="137" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="28"/>
@@ -3627,14 +3794,15 @@
       <c r="G137" s="21"/>
       <c r="H137" s="10"/>
       <c r="I137" s="25"/>
-      <c r="J137" s="42"/>
-      <c r="K137" s="27"/>
-      <c r="L137" s="29"/>
-      <c r="M137" s="31"/>
-      <c r="N137" s="9"/>
-      <c r="O137" s="12"/>
-    </row>
-    <row r="138" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J137" s="25"/>
+      <c r="K137" s="42"/>
+      <c r="L137" s="27"/>
+      <c r="M137" s="29"/>
+      <c r="N137" s="31"/>
+      <c r="O137" s="9"/>
+      <c r="P137" s="12"/>
+    </row>
+    <row r="138" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="43"/>
@@ -3644,14 +3812,15 @@
       <c r="G138" s="21"/>
       <c r="H138" s="10"/>
       <c r="I138" s="23"/>
-      <c r="J138" s="42"/>
-      <c r="K138" s="27"/>
-      <c r="L138" s="24"/>
-      <c r="M138" s="27"/>
-      <c r="N138" s="9"/>
-      <c r="O138" s="12"/>
-    </row>
-    <row r="139" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J138" s="23"/>
+      <c r="K138" s="42"/>
+      <c r="L138" s="27"/>
+      <c r="M138" s="24"/>
+      <c r="N138" s="27"/>
+      <c r="O138" s="9"/>
+      <c r="P138" s="12"/>
+    </row>
+    <row r="139" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="28"/>
@@ -3661,14 +3830,15 @@
       <c r="G139" s="21"/>
       <c r="H139" s="10"/>
       <c r="I139" s="23"/>
-      <c r="J139" s="42"/>
-      <c r="K139" s="27"/>
-      <c r="L139" s="24"/>
-      <c r="M139" s="27"/>
-      <c r="N139" s="9"/>
-      <c r="O139" s="12"/>
-    </row>
-    <row r="140" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J139" s="23"/>
+      <c r="K139" s="42"/>
+      <c r="L139" s="27"/>
+      <c r="M139" s="24"/>
+      <c r="N139" s="27"/>
+      <c r="O139" s="9"/>
+      <c r="P139" s="12"/>
+    </row>
+    <row r="140" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="28"/>
@@ -3678,14 +3848,15 @@
       <c r="G140" s="21"/>
       <c r="H140" s="10"/>
       <c r="I140" s="23"/>
-      <c r="J140" s="42"/>
-      <c r="K140" s="27"/>
-      <c r="L140" s="24"/>
-      <c r="M140" s="27"/>
-      <c r="N140" s="9"/>
-      <c r="O140" s="12"/>
-    </row>
-    <row r="141" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J140" s="23"/>
+      <c r="K140" s="42"/>
+      <c r="L140" s="27"/>
+      <c r="M140" s="24"/>
+      <c r="N140" s="27"/>
+      <c r="O140" s="9"/>
+      <c r="P140" s="12"/>
+    </row>
+    <row r="141" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="28"/>
@@ -3695,14 +3866,15 @@
       <c r="G141" s="21"/>
       <c r="H141" s="10"/>
       <c r="I141" s="23"/>
-      <c r="J141" s="42"/>
-      <c r="K141" s="27"/>
-      <c r="L141" s="24"/>
-      <c r="M141" s="27"/>
-      <c r="N141" s="9"/>
-      <c r="O141" s="12"/>
-    </row>
-    <row r="142" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J141" s="23"/>
+      <c r="K141" s="42"/>
+      <c r="L141" s="27"/>
+      <c r="M141" s="24"/>
+      <c r="N141" s="27"/>
+      <c r="O141" s="9"/>
+      <c r="P141" s="12"/>
+    </row>
+    <row r="142" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="28"/>
@@ -3712,14 +3884,15 @@
       <c r="G142" s="21"/>
       <c r="H142" s="10"/>
       <c r="I142" s="23"/>
-      <c r="J142" s="42"/>
-      <c r="K142" s="27"/>
-      <c r="L142" s="24"/>
-      <c r="M142" s="27"/>
-      <c r="N142" s="9"/>
-      <c r="O142" s="12"/>
-    </row>
-    <row r="143" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J142" s="23"/>
+      <c r="K142" s="42"/>
+      <c r="L142" s="27"/>
+      <c r="M142" s="24"/>
+      <c r="N142" s="27"/>
+      <c r="O142" s="9"/>
+      <c r="P142" s="12"/>
+    </row>
+    <row r="143" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="28"/>
@@ -3729,14 +3902,15 @@
       <c r="G143" s="21"/>
       <c r="H143" s="10"/>
       <c r="I143" s="23"/>
-      <c r="J143" s="42"/>
-      <c r="K143" s="27"/>
-      <c r="L143" s="24"/>
-      <c r="M143" s="27"/>
-      <c r="N143" s="9"/>
-      <c r="O143" s="12"/>
-    </row>
-    <row r="144" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J143" s="23"/>
+      <c r="K143" s="42"/>
+      <c r="L143" s="27"/>
+      <c r="M143" s="24"/>
+      <c r="N143" s="27"/>
+      <c r="O143" s="9"/>
+      <c r="P143" s="12"/>
+    </row>
+    <row r="144" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="28"/>
@@ -3746,14 +3920,15 @@
       <c r="G144" s="21"/>
       <c r="H144" s="10"/>
       <c r="I144" s="23"/>
-      <c r="J144" s="42"/>
-      <c r="K144" s="27"/>
-      <c r="L144" s="24"/>
-      <c r="M144" s="27"/>
-      <c r="N144" s="9"/>
-      <c r="O144" s="12"/>
-    </row>
-    <row r="145" spans="1:15" s="13" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J144" s="23"/>
+      <c r="K144" s="42"/>
+      <c r="L144" s="27"/>
+      <c r="M144" s="24"/>
+      <c r="N144" s="27"/>
+      <c r="O144" s="9"/>
+      <c r="P144" s="12"/>
+    </row>
+    <row r="145" spans="1:16" s="13" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="28"/>
@@ -3763,14 +3938,15 @@
       <c r="G145" s="21"/>
       <c r="H145" s="10"/>
       <c r="I145" s="23"/>
-      <c r="J145" s="42"/>
-      <c r="K145" s="27"/>
-      <c r="L145" s="24"/>
-      <c r="M145" s="27"/>
-      <c r="N145" s="14"/>
-      <c r="O145" s="12"/>
-    </row>
-    <row r="146" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J145" s="23"/>
+      <c r="K145" s="42"/>
+      <c r="L145" s="27"/>
+      <c r="M145" s="24"/>
+      <c r="N145" s="27"/>
+      <c r="O145" s="14"/>
+      <c r="P145" s="12"/>
+    </row>
+    <row r="146" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="28"/>
@@ -3780,14 +3956,15 @@
       <c r="G146" s="21"/>
       <c r="H146" s="10"/>
       <c r="I146" s="23"/>
-      <c r="J146" s="42"/>
-      <c r="K146" s="27"/>
-      <c r="L146" s="24"/>
-      <c r="M146" s="27"/>
-      <c r="N146" s="9"/>
-      <c r="O146" s="12"/>
-    </row>
-    <row r="147" spans="1:15" s="13" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J146" s="23"/>
+      <c r="K146" s="42"/>
+      <c r="L146" s="27"/>
+      <c r="M146" s="24"/>
+      <c r="N146" s="27"/>
+      <c r="O146" s="9"/>
+      <c r="P146" s="12"/>
+    </row>
+    <row r="147" spans="1:16" s="13" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="28"/>
@@ -3797,14 +3974,15 @@
       <c r="G147" s="21"/>
       <c r="H147" s="10"/>
       <c r="I147" s="23"/>
-      <c r="J147" s="42"/>
-      <c r="K147" s="27"/>
-      <c r="L147" s="24"/>
-      <c r="M147" s="27"/>
-      <c r="N147" s="14"/>
-      <c r="O147" s="12"/>
-    </row>
-    <row r="148" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J147" s="23"/>
+      <c r="K147" s="42"/>
+      <c r="L147" s="27"/>
+      <c r="M147" s="24"/>
+      <c r="N147" s="27"/>
+      <c r="O147" s="14"/>
+      <c r="P147" s="12"/>
+    </row>
+    <row r="148" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="28"/>
@@ -3814,14 +3992,15 @@
       <c r="G148" s="21"/>
       <c r="H148" s="10"/>
       <c r="I148" s="23"/>
-      <c r="J148" s="42"/>
-      <c r="K148" s="27"/>
-      <c r="L148" s="24"/>
-      <c r="M148" s="27"/>
-      <c r="N148" s="11"/>
-      <c r="O148" s="12"/>
-    </row>
-    <row r="149" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J148" s="23"/>
+      <c r="K148" s="42"/>
+      <c r="L148" s="27"/>
+      <c r="M148" s="24"/>
+      <c r="N148" s="27"/>
+      <c r="O148" s="11"/>
+      <c r="P148" s="12"/>
+    </row>
+    <row r="149" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="28"/>
@@ -3831,14 +4010,15 @@
       <c r="G149" s="21"/>
       <c r="H149" s="10"/>
       <c r="I149" s="23"/>
-      <c r="J149" s="42"/>
-      <c r="K149" s="27"/>
-      <c r="L149" s="24"/>
-      <c r="M149" s="27"/>
-      <c r="N149" s="11"/>
-      <c r="O149" s="12"/>
-    </row>
-    <row r="150" spans="1:15" s="13" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J149" s="23"/>
+      <c r="K149" s="42"/>
+      <c r="L149" s="27"/>
+      <c r="M149" s="24"/>
+      <c r="N149" s="27"/>
+      <c r="O149" s="11"/>
+      <c r="P149" s="12"/>
+    </row>
+    <row r="150" spans="1:16" s="13" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="28"/>
@@ -3848,14 +4028,15 @@
       <c r="G150" s="21"/>
       <c r="H150" s="10"/>
       <c r="I150" s="23"/>
-      <c r="J150" s="42"/>
-      <c r="K150" s="31"/>
-      <c r="L150" s="29"/>
-      <c r="M150" s="31"/>
-      <c r="N150" s="11"/>
-      <c r="O150" s="12"/>
-    </row>
-    <row r="151" spans="1:15" s="13" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J150" s="23"/>
+      <c r="K150" s="42"/>
+      <c r="L150" s="31"/>
+      <c r="M150" s="29"/>
+      <c r="N150" s="31"/>
+      <c r="O150" s="11"/>
+      <c r="P150" s="12"/>
+    </row>
+    <row r="151" spans="1:16" s="13" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="28"/>
@@ -3865,14 +4046,15 @@
       <c r="G151" s="21"/>
       <c r="H151" s="10"/>
       <c r="I151" s="23"/>
-      <c r="J151" s="42"/>
-      <c r="K151" s="27"/>
-      <c r="L151" s="24"/>
-      <c r="M151" s="27"/>
-      <c r="N151" s="11"/>
-      <c r="O151" s="12"/>
-    </row>
-    <row r="152" spans="1:15" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J151" s="23"/>
+      <c r="K151" s="42"/>
+      <c r="L151" s="27"/>
+      <c r="M151" s="24"/>
+      <c r="N151" s="27"/>
+      <c r="O151" s="11"/>
+      <c r="P151" s="12"/>
+    </row>
+    <row r="152" spans="1:16" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="28"/>
@@ -3882,14 +4064,15 @@
       <c r="G152" s="21"/>
       <c r="H152" s="10"/>
       <c r="I152" s="23"/>
-      <c r="J152" s="42"/>
-      <c r="K152" s="31"/>
-      <c r="L152" s="29"/>
-      <c r="M152" s="31"/>
-      <c r="N152" s="9"/>
-      <c r="O152" s="12"/>
-    </row>
-    <row r="153" spans="1:15" s="13" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J152" s="23"/>
+      <c r="K152" s="42"/>
+      <c r="L152" s="31"/>
+      <c r="M152" s="29"/>
+      <c r="N152" s="31"/>
+      <c r="O152" s="9"/>
+      <c r="P152" s="12"/>
+    </row>
+    <row r="153" spans="1:16" s="13" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="28"/>
@@ -3899,14 +4082,15 @@
       <c r="G153" s="21"/>
       <c r="H153" s="10"/>
       <c r="I153" s="23"/>
-      <c r="J153" s="42"/>
-      <c r="K153" s="31"/>
-      <c r="L153" s="24"/>
-      <c r="M153" s="35"/>
-      <c r="N153" s="14"/>
-      <c r="O153" s="12"/>
-    </row>
-    <row r="154" spans="1:15" s="13" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J153" s="23"/>
+      <c r="K153" s="42"/>
+      <c r="L153" s="31"/>
+      <c r="M153" s="24"/>
+      <c r="N153" s="35"/>
+      <c r="O153" s="14"/>
+      <c r="P153" s="12"/>
+    </row>
+    <row r="154" spans="1:16" s="13" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="28"/>
@@ -3916,14 +4100,15 @@
       <c r="G154" s="21"/>
       <c r="H154" s="10"/>
       <c r="I154" s="23"/>
-      <c r="J154" s="42"/>
-      <c r="K154" s="27"/>
-      <c r="L154" s="24"/>
-      <c r="M154" s="35"/>
-      <c r="N154" s="14"/>
-      <c r="O154" s="12"/>
-    </row>
-    <row r="155" spans="1:15" s="13" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J154" s="23"/>
+      <c r="K154" s="42"/>
+      <c r="L154" s="27"/>
+      <c r="M154" s="24"/>
+      <c r="N154" s="35"/>
+      <c r="O154" s="14"/>
+      <c r="P154" s="12"/>
+    </row>
+    <row r="155" spans="1:16" s="13" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="32"/>
@@ -3933,14 +4118,15 @@
       <c r="G155" s="21"/>
       <c r="H155" s="10"/>
       <c r="I155" s="23"/>
-      <c r="J155" s="42"/>
-      <c r="K155" s="27"/>
-      <c r="L155" s="34"/>
-      <c r="M155" s="35"/>
-      <c r="N155" s="14"/>
-      <c r="O155" s="12"/>
-    </row>
-    <row r="156" spans="1:15" s="13" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J155" s="23"/>
+      <c r="K155" s="42"/>
+      <c r="L155" s="27"/>
+      <c r="M155" s="34"/>
+      <c r="N155" s="35"/>
+      <c r="O155" s="14"/>
+      <c r="P155" s="12"/>
+    </row>
+    <row r="156" spans="1:16" s="13" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
       <c r="C156" s="32"/>
@@ -3950,14 +4136,15 @@
       <c r="G156" s="21"/>
       <c r="H156" s="10"/>
       <c r="I156" s="23"/>
-      <c r="J156" s="42"/>
-      <c r="K156" s="27"/>
-      <c r="L156" s="34"/>
-      <c r="M156" s="35"/>
-      <c r="N156" s="14"/>
-      <c r="O156" s="12"/>
-    </row>
-    <row r="157" spans="1:15" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J156" s="23"/>
+      <c r="K156" s="42"/>
+      <c r="L156" s="27"/>
+      <c r="M156" s="34"/>
+      <c r="N156" s="35"/>
+      <c r="O156" s="14"/>
+      <c r="P156" s="12"/>
+    </row>
+    <row r="157" spans="1:16" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="32"/>
@@ -3967,14 +4154,15 @@
       <c r="G157" s="21"/>
       <c r="H157" s="10"/>
       <c r="I157" s="23"/>
-      <c r="J157" s="42"/>
-      <c r="K157" s="27"/>
-      <c r="L157" s="24"/>
-      <c r="M157" s="27"/>
-      <c r="N157" s="14"/>
-      <c r="O157" s="12"/>
-    </row>
-    <row r="158" spans="1:15" s="13" customFormat="1" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J157" s="23"/>
+      <c r="K157" s="42"/>
+      <c r="L157" s="27"/>
+      <c r="M157" s="24"/>
+      <c r="N157" s="27"/>
+      <c r="O157" s="14"/>
+      <c r="P157" s="12"/>
+    </row>
+    <row r="158" spans="1:16" s="13" customFormat="1" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="32"/>
@@ -3984,14 +4172,15 @@
       <c r="G158" s="21"/>
       <c r="H158" s="10"/>
       <c r="I158" s="23"/>
-      <c r="J158" s="42"/>
-      <c r="K158" s="31"/>
-      <c r="L158" s="29"/>
-      <c r="M158" s="31"/>
-      <c r="N158" s="14"/>
-      <c r="O158" s="12"/>
-    </row>
-    <row r="159" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J158" s="23"/>
+      <c r="K158" s="42"/>
+      <c r="L158" s="31"/>
+      <c r="M158" s="29"/>
+      <c r="N158" s="31"/>
+      <c r="O158" s="14"/>
+      <c r="P158" s="12"/>
+    </row>
+    <row r="159" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="32"/>
@@ -4001,13 +4190,14 @@
       <c r="G159" s="21"/>
       <c r="H159" s="10"/>
       <c r="I159" s="23"/>
-      <c r="J159" s="42"/>
-      <c r="K159" s="31"/>
-      <c r="L159" s="29"/>
-      <c r="M159" s="31"/>
-      <c r="N159" s="9"/>
-    </row>
-    <row r="160" spans="1:15" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J159" s="23"/>
+      <c r="K159" s="42"/>
+      <c r="L159" s="31"/>
+      <c r="M159" s="29"/>
+      <c r="N159" s="31"/>
+      <c r="O159" s="9"/>
+    </row>
+    <row r="160" spans="1:16" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="32"/>
@@ -4017,13 +4207,14 @@
       <c r="G160" s="21"/>
       <c r="H160" s="10"/>
       <c r="I160" s="23"/>
-      <c r="J160" s="42"/>
-      <c r="K160" s="31"/>
-      <c r="L160" s="29"/>
-      <c r="M160" s="31"/>
-      <c r="N160" s="9"/>
-    </row>
-    <row r="161" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+      <c r="J160" s="23"/>
+      <c r="K160" s="42"/>
+      <c r="L160" s="31"/>
+      <c r="M160" s="29"/>
+      <c r="N160" s="31"/>
+      <c r="O160" s="9"/>
+    </row>
+    <row r="161" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="28"/>
@@ -4033,13 +4224,14 @@
       <c r="G161" s="21"/>
       <c r="H161" s="10"/>
       <c r="I161" s="23"/>
-      <c r="J161" s="42"/>
-      <c r="K161" s="31"/>
-      <c r="L161" s="29"/>
-      <c r="M161" s="31"/>
-      <c r="N161" s="9"/>
-    </row>
-    <row r="162" spans="1:16" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J161" s="23"/>
+      <c r="K161" s="42"/>
+      <c r="L161" s="31"/>
+      <c r="M161" s="29"/>
+      <c r="N161" s="31"/>
+      <c r="O161" s="9"/>
+    </row>
+    <row r="162" spans="1:17" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="28"/>
@@ -4049,13 +4241,14 @@
       <c r="G162" s="21"/>
       <c r="H162" s="10"/>
       <c r="I162" s="23"/>
-      <c r="J162" s="42"/>
-      <c r="K162" s="31"/>
-      <c r="L162" s="29"/>
-      <c r="M162" s="31"/>
-      <c r="N162" s="9"/>
-    </row>
-    <row r="163" spans="1:16" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J162" s="23"/>
+      <c r="K162" s="42"/>
+      <c r="L162" s="31"/>
+      <c r="M162" s="29"/>
+      <c r="N162" s="31"/>
+      <c r="O162" s="9"/>
+    </row>
+    <row r="163" spans="1:17" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="28"/>
@@ -4065,13 +4258,14 @@
       <c r="G163" s="21"/>
       <c r="H163" s="10"/>
       <c r="I163" s="23"/>
-      <c r="J163" s="42"/>
-      <c r="K163" s="31"/>
-      <c r="L163" s="29"/>
-      <c r="M163" s="31"/>
-      <c r="N163" s="9"/>
-    </row>
-    <row r="164" spans="1:16" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J163" s="23"/>
+      <c r="K163" s="42"/>
+      <c r="L163" s="31"/>
+      <c r="M163" s="29"/>
+      <c r="N163" s="31"/>
+      <c r="O163" s="9"/>
+    </row>
+    <row r="164" spans="1:17" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="32"/>
@@ -4081,13 +4275,14 @@
       <c r="G164" s="23"/>
       <c r="H164" s="10"/>
       <c r="I164" s="23"/>
-      <c r="J164" s="42"/>
-      <c r="K164" s="27"/>
-      <c r="L164" s="24"/>
-      <c r="M164" s="27"/>
-      <c r="N164" s="9"/>
-    </row>
-    <row r="165" spans="1:16" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J164" s="23"/>
+      <c r="K164" s="42"/>
+      <c r="L164" s="27"/>
+      <c r="M164" s="24"/>
+      <c r="N164" s="27"/>
+      <c r="O164" s="9"/>
+    </row>
+    <row r="165" spans="1:17" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="32"/>
@@ -4097,13 +4292,14 @@
       <c r="G165" s="23"/>
       <c r="H165" s="10"/>
       <c r="I165" s="23"/>
-      <c r="J165" s="42"/>
-      <c r="K165" s="27"/>
-      <c r="L165" s="24"/>
-      <c r="M165" s="27"/>
-      <c r="N165" s="17"/>
-    </row>
-    <row r="166" spans="1:16" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J165" s="23"/>
+      <c r="K165" s="42"/>
+      <c r="L165" s="27"/>
+      <c r="M165" s="24"/>
+      <c r="N165" s="27"/>
+      <c r="O165" s="17"/>
+    </row>
+    <row r="166" spans="1:17" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="21"/>
@@ -4113,15 +4309,16 @@
       <c r="G166" s="23"/>
       <c r="H166" s="10"/>
       <c r="I166" s="23"/>
-      <c r="J166" s="42"/>
-      <c r="K166" s="27"/>
-      <c r="L166" s="24"/>
-      <c r="M166" s="27"/>
-      <c r="N166" s="50"/>
-      <c r="O166" s="51"/>
-      <c r="P166" s="49"/>
-    </row>
-    <row r="167" spans="1:16" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J166" s="23"/>
+      <c r="K166" s="42"/>
+      <c r="L166" s="27"/>
+      <c r="M166" s="24"/>
+      <c r="N166" s="27"/>
+      <c r="O166" s="50"/>
+      <c r="P166" s="51"/>
+      <c r="Q166" s="49"/>
+    </row>
+    <row r="167" spans="1:17" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
       <c r="C167" s="21"/>
@@ -4131,15 +4328,16 @@
       <c r="G167" s="23"/>
       <c r="H167" s="10"/>
       <c r="I167" s="23"/>
-      <c r="J167" s="42"/>
-      <c r="K167" s="27"/>
-      <c r="L167" s="24"/>
-      <c r="M167" s="27"/>
-      <c r="N167" s="48"/>
-      <c r="O167" s="51"/>
-      <c r="P167" s="49"/>
-    </row>
-    <row r="168" spans="1:16" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J167" s="23"/>
+      <c r="K167" s="42"/>
+      <c r="L167" s="27"/>
+      <c r="M167" s="24"/>
+      <c r="N167" s="27"/>
+      <c r="O167" s="48"/>
+      <c r="P167" s="51"/>
+      <c r="Q167" s="49"/>
+    </row>
+    <row r="168" spans="1:17" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="21"/>
@@ -4149,13 +4347,14 @@
       <c r="G168" s="23"/>
       <c r="H168" s="10"/>
       <c r="I168" s="23"/>
-      <c r="J168" s="42"/>
-      <c r="K168" s="27"/>
-      <c r="L168" s="24"/>
-      <c r="M168" s="27"/>
-      <c r="N168" s="14"/>
-    </row>
-    <row r="169" spans="1:16" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J168" s="23"/>
+      <c r="K168" s="42"/>
+      <c r="L168" s="27"/>
+      <c r="M168" s="24"/>
+      <c r="N168" s="27"/>
+      <c r="O168" s="14"/>
+    </row>
+    <row r="169" spans="1:17" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="28"/>
@@ -4165,15 +4364,16 @@
       <c r="G169" s="23"/>
       <c r="H169" s="10"/>
       <c r="I169" s="23"/>
-      <c r="J169" s="42"/>
-      <c r="K169" s="27"/>
-      <c r="L169" s="24"/>
-      <c r="M169" s="27"/>
-      <c r="N169" s="48"/>
-      <c r="O169" s="51"/>
-      <c r="P169" s="49"/>
-    </row>
-    <row r="170" spans="1:16" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J169" s="23"/>
+      <c r="K169" s="42"/>
+      <c r="L169" s="27"/>
+      <c r="M169" s="24"/>
+      <c r="N169" s="27"/>
+      <c r="O169" s="48"/>
+      <c r="P169" s="51"/>
+      <c r="Q169" s="49"/>
+    </row>
+    <row r="170" spans="1:17" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="28"/>
@@ -4183,15 +4383,16 @@
       <c r="G170" s="23"/>
       <c r="H170" s="10"/>
       <c r="I170" s="23"/>
-      <c r="J170" s="42"/>
-      <c r="K170" s="31"/>
-      <c r="L170" s="24"/>
-      <c r="M170" s="46"/>
-      <c r="N170" s="48"/>
-      <c r="O170" s="51"/>
-      <c r="P170" s="49"/>
-    </row>
-    <row r="171" spans="1:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J170" s="23"/>
+      <c r="K170" s="42"/>
+      <c r="L170" s="31"/>
+      <c r="M170" s="24"/>
+      <c r="N170" s="46"/>
+      <c r="O170" s="48"/>
+      <c r="P170" s="51"/>
+      <c r="Q170" s="49"/>
+    </row>
+    <row r="171" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="28"/>
@@ -4201,15 +4402,16 @@
       <c r="G171" s="23"/>
       <c r="H171" s="10"/>
       <c r="I171" s="23"/>
-      <c r="J171" s="42"/>
-      <c r="K171" s="27"/>
-      <c r="L171" s="24"/>
-      <c r="M171" s="27"/>
-      <c r="N171" s="48"/>
-      <c r="O171" s="51"/>
-      <c r="P171" s="49"/>
-    </row>
-    <row r="172" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J171" s="23"/>
+      <c r="K171" s="42"/>
+      <c r="L171" s="27"/>
+      <c r="M171" s="24"/>
+      <c r="N171" s="27"/>
+      <c r="O171" s="48"/>
+      <c r="P171" s="51"/>
+      <c r="Q171" s="49"/>
+    </row>
+    <row r="172" spans="1:17" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="28"/>
@@ -4219,15 +4421,16 @@
       <c r="G172" s="23"/>
       <c r="H172" s="10"/>
       <c r="I172" s="23"/>
-      <c r="J172" s="42"/>
-      <c r="K172" s="47"/>
-      <c r="L172" s="24"/>
-      <c r="M172" s="27"/>
-      <c r="N172" s="48"/>
-      <c r="O172" s="51"/>
-      <c r="P172" s="49"/>
-    </row>
-    <row r="173" spans="1:16" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J172" s="23"/>
+      <c r="K172" s="42"/>
+      <c r="L172" s="47"/>
+      <c r="M172" s="24"/>
+      <c r="N172" s="27"/>
+      <c r="O172" s="48"/>
+      <c r="P172" s="51"/>
+      <c r="Q172" s="49"/>
+    </row>
+    <row r="173" spans="1:17" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="28"/>
@@ -4237,15 +4440,16 @@
       <c r="G173" s="23"/>
       <c r="H173" s="10"/>
       <c r="I173" s="23"/>
-      <c r="J173" s="42"/>
-      <c r="K173" s="27"/>
-      <c r="L173" s="24"/>
-      <c r="M173" s="31"/>
-      <c r="N173" s="48"/>
-      <c r="O173" s="38"/>
-      <c r="P173" s="49"/>
-    </row>
-    <row r="174" spans="1:16" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J173" s="23"/>
+      <c r="K173" s="42"/>
+      <c r="L173" s="27"/>
+      <c r="M173" s="24"/>
+      <c r="N173" s="31"/>
+      <c r="O173" s="48"/>
+      <c r="P173" s="38"/>
+      <c r="Q173" s="49"/>
+    </row>
+    <row r="174" spans="1:17" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="28"/>
@@ -4255,15 +4459,16 @@
       <c r="G174" s="23"/>
       <c r="H174" s="10"/>
       <c r="I174" s="23"/>
-      <c r="J174" s="42"/>
-      <c r="K174" s="27"/>
-      <c r="L174" s="24"/>
-      <c r="M174" s="31"/>
-      <c r="N174" s="48"/>
-      <c r="O174" s="38"/>
-      <c r="P174" s="49"/>
-    </row>
-    <row r="175" spans="1:16" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J174" s="23"/>
+      <c r="K174" s="42"/>
+      <c r="L174" s="27"/>
+      <c r="M174" s="24"/>
+      <c r="N174" s="31"/>
+      <c r="O174" s="48"/>
+      <c r="P174" s="38"/>
+      <c r="Q174" s="49"/>
+    </row>
+    <row r="175" spans="1:17" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="28"/>
@@ -4273,15 +4478,16 @@
       <c r="G175" s="23"/>
       <c r="H175" s="10"/>
       <c r="I175" s="23"/>
-      <c r="J175" s="42"/>
-      <c r="K175" s="31"/>
-      <c r="L175" s="24"/>
-      <c r="M175" s="27"/>
-      <c r="N175" s="48"/>
-      <c r="O175" s="38"/>
-      <c r="P175" s="49"/>
-    </row>
-    <row r="176" spans="1:16" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J175" s="23"/>
+      <c r="K175" s="42"/>
+      <c r="L175" s="31"/>
+      <c r="M175" s="24"/>
+      <c r="N175" s="27"/>
+      <c r="O175" s="48"/>
+      <c r="P175" s="38"/>
+      <c r="Q175" s="49"/>
+    </row>
+    <row r="176" spans="1:17" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="32"/>
@@ -4291,13 +4497,14 @@
       <c r="G176" s="23"/>
       <c r="H176" s="10"/>
       <c r="I176" s="23"/>
-      <c r="J176" s="42"/>
-      <c r="K176" s="27"/>
-      <c r="L176" s="24"/>
-      <c r="M176" s="27"/>
-      <c r="N176" s="9"/>
-    </row>
-    <row r="177" spans="1:14" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J176" s="23"/>
+      <c r="K176" s="42"/>
+      <c r="L176" s="27"/>
+      <c r="M176" s="24"/>
+      <c r="N176" s="27"/>
+      <c r="O176" s="9"/>
+    </row>
+    <row r="177" spans="1:15" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
       <c r="C177" s="32"/>
@@ -4307,13 +4514,14 @@
       <c r="G177" s="23"/>
       <c r="H177" s="10"/>
       <c r="I177" s="23"/>
-      <c r="J177" s="42"/>
-      <c r="K177" s="27"/>
-      <c r="L177" s="24"/>
-      <c r="M177" s="27"/>
-      <c r="N177" s="9"/>
-    </row>
-    <row r="178" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J177" s="23"/>
+      <c r="K177" s="42"/>
+      <c r="L177" s="27"/>
+      <c r="M177" s="24"/>
+      <c r="N177" s="27"/>
+      <c r="O177" s="9"/>
+    </row>
+    <row r="178" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
       <c r="C178" s="32"/>
@@ -4323,12 +4531,13 @@
       <c r="G178" s="23"/>
       <c r="H178" s="10"/>
       <c r="I178" s="23"/>
-      <c r="J178" s="42"/>
-      <c r="K178" s="27"/>
-      <c r="L178" s="24"/>
-      <c r="M178" s="27"/>
-    </row>
-    <row r="179" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J178" s="23"/>
+      <c r="K178" s="42"/>
+      <c r="L178" s="27"/>
+      <c r="M178" s="24"/>
+      <c r="N178" s="27"/>
+    </row>
+    <row r="179" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
       <c r="C179" s="32"/>
@@ -4338,12 +4547,13 @@
       <c r="G179" s="23"/>
       <c r="H179" s="10"/>
       <c r="I179" s="23"/>
-      <c r="J179" s="42"/>
-      <c r="K179" s="27"/>
-      <c r="L179" s="24"/>
-      <c r="M179" s="27"/>
-    </row>
-    <row r="180" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J179" s="23"/>
+      <c r="K179" s="42"/>
+      <c r="L179" s="27"/>
+      <c r="M179" s="24"/>
+      <c r="N179" s="27"/>
+    </row>
+    <row r="180" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
       <c r="C180" s="32"/>
@@ -4353,12 +4563,13 @@
       <c r="G180" s="23"/>
       <c r="H180" s="10"/>
       <c r="I180" s="23"/>
-      <c r="J180" s="42"/>
-      <c r="K180" s="27"/>
-      <c r="L180" s="24"/>
-      <c r="M180" s="27"/>
-    </row>
-    <row r="181" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J180" s="23"/>
+      <c r="K180" s="42"/>
+      <c r="L180" s="27"/>
+      <c r="M180" s="24"/>
+      <c r="N180" s="27"/>
+    </row>
+    <row r="181" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
       <c r="C181" s="32"/>
@@ -4368,12 +4579,13 @@
       <c r="G181" s="23"/>
       <c r="H181" s="10"/>
       <c r="I181" s="23"/>
-      <c r="J181" s="42"/>
-      <c r="K181" s="27"/>
-      <c r="L181" s="24"/>
-      <c r="M181" s="27"/>
-    </row>
-    <row r="182" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="J181" s="23"/>
+      <c r="K181" s="42"/>
+      <c r="L181" s="27"/>
+      <c r="M181" s="24"/>
+      <c r="N181" s="27"/>
+    </row>
+    <row r="182" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
       <c r="C182" s="32"/>
@@ -4383,10 +4595,11 @@
       <c r="G182" s="23"/>
       <c r="H182" s="10"/>
       <c r="I182" s="23"/>
-      <c r="J182" s="42"/>
-      <c r="K182" s="27"/>
-      <c r="L182" s="24"/>
-      <c r="M182" s="27"/>
+      <c r="J182" s="23"/>
+      <c r="K182" s="42"/>
+      <c r="L182" s="27"/>
+      <c r="M182" s="24"/>
+      <c r="N182" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
